--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_23_32.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_23_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1020258.278361547</v>
+        <v>1015744.407855449</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>30171402.29412591</v>
+        <v>30171402.2941259</v>
       </c>
     </row>
     <row r="8">
@@ -1369,13 +1369,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>225.6643100280185</v>
       </c>
       <c r="C11" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1384,7 +1384,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>398.3310518139933</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1429,16 +1429,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>127.3620041313403</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>94.12575008467583</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>134.5230953913808</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>72.26896432086183</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>6.943533196782496</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>153.0757232160747</v>
@@ -1593,10 +1593,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>10.71275498176813</v>
       </c>
     </row>
     <row r="14">
@@ -1609,13 +1609,13 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1624,7 +1624,7 @@
         <v>398.3310518139933</v>
       </c>
       <c r="H14" t="n">
-        <v>147.0331194824809</v>
+        <v>274.7695304478259</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,19 +1657,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>58.55484356332865</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>210.1161913164022</v>
       </c>
       <c r="U14" t="n">
         <v>255.6141907117556</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>94.02692657036526</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1770,19 +1770,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>163.713139123526</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>134.5230953913808</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>6.943533196782496</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>237.1405668778449</v>
+        <v>218.4569503363417</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3345352391432</v>
       </c>
       <c r="V16" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
-        <v>137.3117088627108</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="17">
@@ -1849,13 +1849,13 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
-        <v>34.16618575054689</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>92.72102931387617</v>
       </c>
       <c r="G17" t="n">
         <v>398.3310518139933</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>58.55484356332865</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>210.1161913164022</v>
@@ -2001,13 +2001,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>63.15381848419833</v>
       </c>
       <c r="E19" t="n">
         <v>164.546123788675</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>72.26896432086183</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2061,13 +2061,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>140.3930680588825</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
         <v>224.0793406271554</v>
@@ -2083,16 +2083,16 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>422.6317226868329</v>
+        <v>138.0521126360682</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2134,22 +2134,22 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>210.1161913164022</v>
       </c>
       <c r="U20" t="n">
-        <v>119.4502631776014</v>
+        <v>255.6141907117556</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2177,7 +2177,7 @@
         <v>92.06206970855649</v>
       </c>
       <c r="H21" t="n">
-        <v>42.69029760379512</v>
+        <v>42.69029760379511</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>46.85347643296931</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>30.41967611343055</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.713139123526</v>
       </c>
       <c r="H22" t="n">
         <v>134.5230953913808</v>
       </c>
       <c r="I22" t="n">
-        <v>72.26896432086183</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>6.943533196782496</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>153.0757232160747</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>237.1405668778449</v>
       </c>
       <c r="U22" t="n">
         <v>277.3345352391432</v>
@@ -2317,16 +2317,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>257.1040937689078</v>
       </c>
       <c r="C23" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D23" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F23" t="n">
         <v>420.8729399924937</v>
@@ -2371,10 +2371,10 @@
         <v>58.55484356332865</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>210.1161913164022</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>255.6141907117556</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2383,10 +2383,10 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>324.2080542991787</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2414,7 +2414,7 @@
         <v>92.06206970855649</v>
       </c>
       <c r="H24" t="n">
-        <v>42.69029760379512</v>
+        <v>42.69029760379511</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2481,22 +2481,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>71.12942939657536</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>158.4030731384639</v>
       </c>
       <c r="G25" t="n">
-        <v>163.713139123526</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>134.5230953913808</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>72.26896432086183</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>6.943533196782496</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>153.0757232160747</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>237.1405668778449</v>
@@ -2535,16 +2535,16 @@
         <v>277.3345352391432</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="26">
@@ -2554,22 +2554,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E26" t="n">
-        <v>315.9175582365908</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G26" t="n">
-        <v>398.3310518139933</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         <v>58.55484356332865</v>
       </c>
       <c r="T26" t="n">
-        <v>210.1161913164022</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>255.6141907117556</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>303.7747811902165</v>
       </c>
     </row>
     <row r="27">
@@ -2715,10 +2715,10 @@
         <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>128.4646588449445</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
         <v>164.546123788675</v>
@@ -2733,7 +2733,7 @@
         <v>134.5230953913808</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>72.26896432086183</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2772,16 +2772,16 @@
         <v>277.3345352391432</v>
       </c>
       <c r="V28" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>131.5474147543083</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2791,10 +2791,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C29" t="n">
-        <v>131.0161049146291</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>419.0596946068497</v>
@@ -2806,7 +2806,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G29" t="n">
-        <v>398.3310518139933</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>58.55484356332865</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>55.14243251667887</v>
       </c>
       <c r="U29" t="n">
         <v>255.6141907117556</v>
@@ -2961,16 +2961,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
         <v>163.713139123526</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>134.5230953913808</v>
       </c>
       <c r="I31" t="n">
-        <v>35.58523352500688</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>3.022861439652856</v>
       </c>
       <c r="S31" t="n">
         <v>153.0757232160747</v>
@@ -3012,7 +3012,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>240.1382575886529</v>
@@ -3028,16 +3028,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>317.8891527999067</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E32" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>420.8729399924937</v>
@@ -3082,19 +3082,19 @@
         <v>58.55484356332865</v>
       </c>
       <c r="T32" t="n">
-        <v>210.1161913164022</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>255.6141907117556</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>325.8212957307281</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3189,7 +3189,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3204,10 +3204,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>134.5230953913808</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>72.26896432086183</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>6.943533196782496</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>153.0757232160747</v>
       </c>
       <c r="T34" t="n">
-        <v>28.84200489789767</v>
+        <v>72.32476031704921</v>
       </c>
       <c r="U34" t="n">
         <v>277.3345352391432</v>
@@ -3277,13 +3277,13 @@
         <v>421.717170453621</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>274.7695304478259</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3319,19 +3319,19 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>210.1161913164022</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W35" t="n">
-        <v>313.3457668247132</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X35" t="n">
-        <v>407.6027988439302</v>
+        <v>38.61939051270852</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
         <v>170.2528374898731</v>
@@ -3432,13 +3432,13 @@
         <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>163.713139123526</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>6.943533196782496</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>153.0757232160747</v>
@@ -3480,10 +3480,10 @@
         <v>237.1405668778449</v>
       </c>
       <c r="U37" t="n">
-        <v>82.79098916786332</v>
+        <v>277.3345352391432</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>122.5380974959443</v>
       </c>
       <c r="W37" t="n">
         <v>272.1038797892121</v>
@@ -3502,22 +3502,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E38" t="n">
-        <v>421.717170453621</v>
+        <v>84.86586967940809</v>
       </c>
       <c r="F38" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>398.3310518139933</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>274.7695304478259</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>58.55484356332865</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3568,10 +3568,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X38" t="n">
-        <v>138.4930235827522</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="39">
@@ -3669,16 +3669,16 @@
         <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>139.8795628268066</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>163.713139123526</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>134.5230953913808</v>
       </c>
       <c r="I40" t="n">
         <v>72.26896432086183</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>6.943533196782496</v>
+        <v>4.676543038219756</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3720,10 +3720,10 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>240.1382575886529</v>
@@ -3739,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
-        <v>266.9003247567259</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>398.3310518139933</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>274.7695304478259</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,22 +3790,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>58.55484356332865</v>
       </c>
       <c r="T41" t="n">
-        <v>210.1161913164022</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>51.54713892089095</v>
       </c>
       <c r="V41" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
         <v>170.2528374898731</v>
@@ -3906,16 +3906,16 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>163.713139123526</v>
       </c>
       <c r="H43" t="n">
-        <v>134.5230953913808</v>
+        <v>34.50559307043157</v>
       </c>
       <c r="I43" t="n">
         <v>72.26896432086183</v>
@@ -3951,7 +3951,7 @@
         <v>153.0757232160747</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>237.1405668778449</v>
       </c>
       <c r="U43" t="n">
         <v>277.3345352391432</v>
@@ -3963,7 +3963,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>230.8363508986334</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
         <v>224.0793406271554</v>
@@ -3982,7 +3982,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>419.0596946068497</v>
+        <v>6.635234193922081</v>
       </c>
       <c r="E44" t="n">
         <v>421.717170453621</v>
@@ -3991,10 +3991,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>398.3310518139933</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>274.7695304478259</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,22 +4027,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>58.55484356332865</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>210.1161913164022</v>
       </c>
       <c r="U44" t="n">
         <v>255.6141907117556</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>175.4326360036094</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4134,16 +4134,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>170.2528374898731</v>
+        <v>22.21079600686705</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>108.3331722679646</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4152,10 +4152,10 @@
         <v>163.713139123526</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>134.5230953913808</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>72.26896432086183</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>6.943533196782496</v>
       </c>
       <c r="S46" t="n">
         <v>153.0757232160747</v>
@@ -4200,10 +4200,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>892.3828200347102</v>
+        <v>444.544067024923</v>
       </c>
       <c r="C11" t="n">
-        <v>465.4820900480103</v>
+        <v>444.544067024923</v>
       </c>
       <c r="D11" t="n">
-        <v>42.18946923301057</v>
+        <v>444.544067024923</v>
       </c>
       <c r="E11" t="n">
-        <v>42.18946923301057</v>
+        <v>444.544067024923</v>
       </c>
       <c r="F11" t="n">
-        <v>42.18946923301057</v>
+        <v>444.544067024923</v>
       </c>
       <c r="G11" t="n">
         <v>42.18946923301057</v>
@@ -5077,16 +5077,16 @@
         <v>1838.088577933628</v>
       </c>
       <c r="V11" t="n">
-        <v>1709.440088912072</v>
+        <v>1480.599163059878</v>
       </c>
       <c r="W11" t="n">
-        <v>1709.440088912072</v>
+        <v>1084.207813360225</v>
       </c>
       <c r="X11" t="n">
-        <v>1297.72009007982</v>
+        <v>672.487814527972</v>
       </c>
       <c r="Y11" t="n">
-        <v>892.3828200347102</v>
+        <v>672.487814527972</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>891.9810417375021</v>
+        <v>597.9965975800881</v>
       </c>
       <c r="C12" t="n">
-        <v>774.4751382550069</v>
+        <v>480.4906940975928</v>
       </c>
       <c r="D12" t="n">
-        <v>670.6351797702919</v>
+        <v>376.6507356128779</v>
       </c>
       <c r="E12" t="n">
-        <v>565.9332460432291</v>
+        <v>271.9488018858151</v>
       </c>
       <c r="F12" t="n">
-        <v>472.2874157261333</v>
+        <v>178.3029715687193</v>
       </c>
       <c r="G12" t="n">
-        <v>379.2954261215308</v>
+        <v>85.31098196411673</v>
       </c>
       <c r="H12" t="n">
-        <v>336.1739133904246</v>
+        <v>42.18946923301057</v>
       </c>
       <c r="I12" t="n">
-        <v>379.4500466715236</v>
+        <v>62.00829666969776</v>
       </c>
       <c r="J12" t="n">
-        <v>716.2854900075844</v>
+        <v>139.922153475317</v>
       </c>
       <c r="K12" t="n">
-        <v>862.1528402427136</v>
+        <v>285.7895037104463</v>
       </c>
       <c r="L12" t="n">
-        <v>1065.816906720641</v>
+        <v>489.4535701883733</v>
       </c>
       <c r="M12" t="n">
-        <v>1306.628757164958</v>
+        <v>730.2654206326901</v>
       </c>
       <c r="N12" t="n">
-        <v>1556.15558553132</v>
+        <v>1252.360102391196</v>
       </c>
       <c r="O12" t="n">
-        <v>1780.813167743892</v>
+        <v>1486.828723586478</v>
       </c>
       <c r="P12" t="n">
-        <v>1957.979060367261</v>
+        <v>1663.994616209847</v>
       </c>
       <c r="Q12" t="n">
-        <v>2068.297898352844</v>
+        <v>1774.31345419543</v>
       </c>
       <c r="R12" t="n">
-        <v>2109.473461650528</v>
+        <v>1815.489017493114</v>
       </c>
       <c r="S12" t="n">
-        <v>2047.871352470359</v>
+        <v>1753.886908312945</v>
       </c>
       <c r="T12" t="n">
-        <v>1910.271144054845</v>
+        <v>1616.286699897431</v>
       </c>
       <c r="U12" t="n">
-        <v>1725.572802065126</v>
+        <v>1431.588357907712</v>
       </c>
       <c r="V12" t="n">
-        <v>1520.599663204392</v>
+        <v>1226.615219046978</v>
       </c>
       <c r="W12" t="n">
-        <v>1324.07828603761</v>
+        <v>1030.093841880195</v>
       </c>
       <c r="X12" t="n">
-        <v>1160.600939804272</v>
+        <v>866.6164956468584</v>
       </c>
       <c r="Y12" t="n">
-        <v>1020.908051157565</v>
+        <v>726.9236070001508</v>
       </c>
     </row>
     <row r="13">
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>681.4361888605749</v>
+        <v>625.230966286137</v>
       </c>
       <c r="C13" t="n">
-        <v>509.4636257394909</v>
+        <v>453.258403165053</v>
       </c>
       <c r="D13" t="n">
-        <v>346.1468528662616</v>
+        <v>453.258403165053</v>
       </c>
       <c r="E13" t="n">
-        <v>346.1468528662616</v>
+        <v>287.0501973179065</v>
       </c>
       <c r="F13" t="n">
-        <v>346.1468528662616</v>
+        <v>115.188423092467</v>
       </c>
       <c r="G13" t="n">
-        <v>251.0703376292153</v>
+        <v>115.188423092467</v>
       </c>
       <c r="H13" t="n">
         <v>115.188423092467</v>
@@ -5199,19 +5199,19 @@
         <v>42.18946923301057</v>
       </c>
       <c r="J13" t="n">
-        <v>83.44117394564142</v>
+        <v>161.3628905938623</v>
       </c>
       <c r="K13" t="n">
-        <v>271.1531521491764</v>
+        <v>291.4837506878532</v>
       </c>
       <c r="L13" t="n">
-        <v>379.1628444991455</v>
+        <v>399.4934430378223</v>
       </c>
       <c r="M13" t="n">
-        <v>901.2575262576513</v>
+        <v>921.5881247963281</v>
       </c>
       <c r="N13" t="n">
-        <v>1412.257417456429</v>
+        <v>1034.555093153226</v>
       </c>
       <c r="O13" t="n">
         <v>1513.299820018577</v>
@@ -5223,28 +5223,28 @@
         <v>2109.473461650528</v>
       </c>
       <c r="R13" t="n">
-        <v>2102.459791754789</v>
+        <v>2109.473461650528</v>
       </c>
       <c r="S13" t="n">
-        <v>1947.837849112289</v>
+        <v>1954.851519008029</v>
       </c>
       <c r="T13" t="n">
-        <v>1708.301922973052</v>
+        <v>1715.315592868792</v>
       </c>
       <c r="U13" t="n">
-        <v>1428.166028792099</v>
+        <v>1435.179698687839</v>
       </c>
       <c r="V13" t="n">
-        <v>1146.454561400128</v>
+        <v>1153.468231295868</v>
       </c>
       <c r="W13" t="n">
-        <v>871.6021575726406</v>
+        <v>878.6158274683805</v>
       </c>
       <c r="X13" t="n">
-        <v>871.6021575726406</v>
+        <v>636.0519309141856</v>
       </c>
       <c r="Y13" t="n">
-        <v>871.6021575726406</v>
+        <v>625.230966286137</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1445.940039371322</v>
+        <v>722.0890472752521</v>
       </c>
       <c r="C14" t="n">
-        <v>1019.039309384622</v>
+        <v>722.0890472752521</v>
       </c>
       <c r="D14" t="n">
-        <v>1019.039309384622</v>
+        <v>722.0890472752521</v>
       </c>
       <c r="E14" t="n">
-        <v>593.0623695324795</v>
+        <v>722.0890472752521</v>
       </c>
       <c r="F14" t="n">
-        <v>593.0623695324795</v>
+        <v>722.0890472752521</v>
       </c>
       <c r="G14" t="n">
-        <v>190.7077717405671</v>
+        <v>319.7344494833398</v>
       </c>
       <c r="H14" t="n">
-        <v>42.18946923301056</v>
+        <v>42.18946923301057</v>
       </c>
       <c r="I14" t="n">
-        <v>82.97064708758361</v>
+        <v>82.97064708758353</v>
       </c>
       <c r="J14" t="n">
-        <v>218.9221049399276</v>
+        <v>218.9221049399277</v>
       </c>
       <c r="K14" t="n">
-        <v>430.9231076957178</v>
+        <v>430.923107695718</v>
       </c>
       <c r="L14" t="n">
-        <v>699.9256343271979</v>
+        <v>699.9256343271982</v>
       </c>
       <c r="M14" t="n">
         <v>1004.389060027289</v>
       </c>
       <c r="N14" t="n">
-        <v>1314.528766123479</v>
+        <v>1314.52876612348</v>
       </c>
       <c r="O14" t="n">
-        <v>1605.217916110743</v>
+        <v>1605.217916110744</v>
       </c>
       <c r="P14" t="n">
-        <v>1847.707967654119</v>
+        <v>1847.70796765412</v>
       </c>
       <c r="Q14" t="n">
-        <v>2021.97982629525</v>
+        <v>2021.979826295251</v>
       </c>
       <c r="R14" t="n">
         <v>2109.473461650528</v>
       </c>
       <c r="S14" t="n">
-        <v>2109.473461650528</v>
+        <v>2050.327155020903</v>
       </c>
       <c r="T14" t="n">
-        <v>2109.473461650528</v>
+        <v>1838.088577933628</v>
       </c>
       <c r="U14" t="n">
-        <v>1851.277309416431</v>
+        <v>1579.892425699532</v>
       </c>
       <c r="V14" t="n">
-        <v>1851.277309416431</v>
+        <v>1222.403010825781</v>
       </c>
       <c r="W14" t="n">
-        <v>1851.277309416431</v>
+        <v>1127.426317320362</v>
       </c>
       <c r="X14" t="n">
-        <v>1851.277309416431</v>
+        <v>1127.426317320362</v>
       </c>
       <c r="Y14" t="n">
-        <v>1445.940039371322</v>
+        <v>722.0890472752521</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>891.9810417375016</v>
+        <v>597.9965975800881</v>
       </c>
       <c r="C15" t="n">
-        <v>774.4751382550064</v>
+        <v>480.4906940975928</v>
       </c>
       <c r="D15" t="n">
-        <v>670.6351797702914</v>
+        <v>376.6507356128779</v>
       </c>
       <c r="E15" t="n">
-        <v>565.9332460432287</v>
+        <v>271.9488018858151</v>
       </c>
       <c r="F15" t="n">
-        <v>472.2874157261328</v>
+        <v>178.3029715687193</v>
       </c>
       <c r="G15" t="n">
-        <v>379.2954261215303</v>
+        <v>85.31098196411673</v>
       </c>
       <c r="H15" t="n">
-        <v>336.1739133904242</v>
+        <v>42.18946923301057</v>
       </c>
       <c r="I15" t="n">
-        <v>355.9927408271113</v>
+        <v>62.00829666969776</v>
       </c>
       <c r="J15" t="n">
-        <v>433.9065976327306</v>
+        <v>422.3010458501699</v>
       </c>
       <c r="K15" t="n">
-        <v>579.7739478678599</v>
+        <v>568.1683960852992</v>
       </c>
       <c r="L15" t="n">
-        <v>1065.81690672064</v>
+        <v>771.8324625632262</v>
       </c>
       <c r="M15" t="n">
-        <v>1306.628757164957</v>
+        <v>1012.644313007543</v>
       </c>
       <c r="N15" t="n">
-        <v>1556.155585531319</v>
+        <v>1262.171141373905</v>
       </c>
       <c r="O15" t="n">
-        <v>1780.813167743892</v>
+        <v>1486.828723586478</v>
       </c>
       <c r="P15" t="n">
-        <v>1957.979060367261</v>
+        <v>1663.994616209847</v>
       </c>
       <c r="Q15" t="n">
-        <v>2068.297898352844</v>
+        <v>1774.31345419543</v>
       </c>
       <c r="R15" t="n">
-        <v>2109.473461650528</v>
+        <v>1815.489017493114</v>
       </c>
       <c r="S15" t="n">
-        <v>2047.871352470358</v>
+        <v>1753.886908312945</v>
       </c>
       <c r="T15" t="n">
-        <v>1910.271144054845</v>
+        <v>1616.286699897431</v>
       </c>
       <c r="U15" t="n">
-        <v>1725.572802065126</v>
+        <v>1431.588357907712</v>
       </c>
       <c r="V15" t="n">
-        <v>1520.599663204392</v>
+        <v>1226.615219046978</v>
       </c>
       <c r="W15" t="n">
-        <v>1324.078286037609</v>
+        <v>1030.093841880195</v>
       </c>
       <c r="X15" t="n">
-        <v>1160.600939804272</v>
+        <v>866.6164956468584</v>
       </c>
       <c r="Y15" t="n">
-        <v>1020.908051157564</v>
+        <v>726.9236070001508</v>
       </c>
     </row>
     <row r="16">
@@ -5412,46 +5412,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1016.797507032139</v>
+        <v>386.0238065795342</v>
       </c>
       <c r="C16" t="n">
-        <v>844.8249439110551</v>
+        <v>214.0512434584501</v>
       </c>
       <c r="D16" t="n">
-        <v>681.5081710378258</v>
+        <v>214.0512434584501</v>
       </c>
       <c r="E16" t="n">
-        <v>515.2999651906794</v>
+        <v>214.0512434584501</v>
       </c>
       <c r="F16" t="n">
-        <v>343.4381909652398</v>
+        <v>42.18946923301057</v>
       </c>
       <c r="G16" t="n">
-        <v>178.0713837697589</v>
+        <v>42.18946923301057</v>
       </c>
       <c r="H16" t="n">
-        <v>42.18946923301056</v>
+        <v>42.18946923301057</v>
       </c>
       <c r="I16" t="n">
-        <v>42.18946923301056</v>
+        <v>42.18946923301057</v>
       </c>
       <c r="J16" t="n">
         <v>83.44117394564142</v>
       </c>
       <c r="K16" t="n">
-        <v>164.0487930513366</v>
+        <v>411.3314021653587</v>
       </c>
       <c r="L16" t="n">
-        <v>648.4473789924707</v>
+        <v>519.3410945153278</v>
       </c>
       <c r="M16" t="n">
-        <v>1170.542060750976</v>
+        <v>633.7516420118284</v>
       </c>
       <c r="N16" t="n">
-        <v>1412.257417456429</v>
+        <v>1144.751533210606</v>
       </c>
       <c r="O16" t="n">
-        <v>1513.299820018576</v>
+        <v>1513.299820018577</v>
       </c>
       <c r="P16" t="n">
         <v>1909.417685288886</v>
@@ -5460,28 +5460,28 @@
         <v>2109.473461650528</v>
       </c>
       <c r="R16" t="n">
-        <v>2109.473461650528</v>
+        <v>2102.459791754789</v>
       </c>
       <c r="S16" t="n">
-        <v>2109.473461650528</v>
+        <v>2102.459791754789</v>
       </c>
       <c r="T16" t="n">
-        <v>1869.937535511291</v>
+        <v>1881.796205556464</v>
       </c>
       <c r="U16" t="n">
-        <v>1869.937535511291</v>
+        <v>1601.660311375511</v>
       </c>
       <c r="V16" t="n">
-        <v>1588.22606811932</v>
+        <v>1319.94884398354</v>
       </c>
       <c r="W16" t="n">
-        <v>1588.22606811932</v>
+        <v>1045.096440156052</v>
       </c>
       <c r="X16" t="n">
-        <v>1345.662171565125</v>
+        <v>802.5325436018577</v>
       </c>
       <c r="Y16" t="n">
-        <v>1206.963475744205</v>
+        <v>576.1897752915997</v>
       </c>
     </row>
     <row r="17">
@@ -5491,16 +5491,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1183.501075999878</v>
+        <v>1242.647382629504</v>
       </c>
       <c r="C17" t="n">
-        <v>756.6003460131783</v>
+        <v>815.7466526428038</v>
       </c>
       <c r="D17" t="n">
-        <v>722.0890472752521</v>
+        <v>815.7466526428038</v>
       </c>
       <c r="E17" t="n">
-        <v>722.0890472752521</v>
+        <v>815.7466526428038</v>
       </c>
       <c r="F17" t="n">
         <v>722.0890472752521</v>
@@ -5509,19 +5509,19 @@
         <v>319.7344494833398</v>
       </c>
       <c r="H17" t="n">
-        <v>42.18946923301056</v>
+        <v>42.18946923301057</v>
       </c>
       <c r="I17" t="n">
-        <v>82.97064708758353</v>
+        <v>82.9706470875833</v>
       </c>
       <c r="J17" t="n">
-        <v>218.9221049399277</v>
+        <v>218.9221049399271</v>
       </c>
       <c r="K17" t="n">
-        <v>430.923107695718</v>
+        <v>430.9231076957175</v>
       </c>
       <c r="L17" t="n">
-        <v>699.9256343271979</v>
+        <v>699.9256343271975</v>
       </c>
       <c r="M17" t="n">
         <v>1004.389060027289</v>
@@ -5536,31 +5536,31 @@
         <v>1847.70796765412</v>
       </c>
       <c r="Q17" t="n">
-        <v>2021.97982629525</v>
+        <v>2021.979826295251</v>
       </c>
       <c r="R17" t="n">
         <v>2109.473461650528</v>
       </c>
       <c r="S17" t="n">
-        <v>2050.327155020903</v>
+        <v>2109.473461650528</v>
       </c>
       <c r="T17" t="n">
-        <v>1838.088577933628</v>
+        <v>1897.234884563253</v>
       </c>
       <c r="U17" t="n">
-        <v>1579.892425699531</v>
+        <v>1639.038732329157</v>
       </c>
       <c r="V17" t="n">
-        <v>1579.892425699531</v>
+        <v>1639.038732329157</v>
       </c>
       <c r="W17" t="n">
-        <v>1183.501075999878</v>
+        <v>1242.647382629504</v>
       </c>
       <c r="X17" t="n">
-        <v>1183.501075999878</v>
+        <v>1242.647382629504</v>
       </c>
       <c r="Y17" t="n">
-        <v>1183.501075999878</v>
+        <v>1242.647382629504</v>
       </c>
     </row>
     <row r="18">
@@ -5585,37 +5585,37 @@
         <v>178.3029715687193</v>
       </c>
       <c r="G18" t="n">
-        <v>85.31098196411673</v>
+        <v>85.31098196411675</v>
       </c>
       <c r="H18" t="n">
-        <v>42.18946923301056</v>
+        <v>42.18946923301057</v>
       </c>
       <c r="I18" t="n">
-        <v>62.00829666969775</v>
+        <v>62.00829666969776</v>
       </c>
       <c r="J18" t="n">
         <v>139.922153475317</v>
       </c>
       <c r="K18" t="n">
-        <v>285.7895037104462</v>
+        <v>285.7895037104463</v>
       </c>
       <c r="L18" t="n">
         <v>489.4535701883732</v>
       </c>
       <c r="M18" t="n">
-        <v>730.2654206326899</v>
+        <v>1011.548251946879</v>
       </c>
       <c r="N18" t="n">
-        <v>979.7922489990519</v>
+        <v>1261.075080313241</v>
       </c>
       <c r="O18" t="n">
-        <v>1381.373223301572</v>
+        <v>1486.828723586478</v>
       </c>
       <c r="P18" t="n">
-        <v>1558.539115924941</v>
+        <v>1663.994616209847</v>
       </c>
       <c r="Q18" t="n">
-        <v>1668.857953910524</v>
+        <v>1774.31345419543</v>
       </c>
       <c r="R18" t="n">
         <v>1815.489017493114</v>
@@ -5649,49 +5649,49 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>790.5977734816179</v>
+        <v>781.3905554647861</v>
       </c>
       <c r="C19" t="n">
-        <v>618.6252103605339</v>
+        <v>609.4179923437021</v>
       </c>
       <c r="D19" t="n">
-        <v>618.6252103605339</v>
+        <v>545.6262565010775</v>
       </c>
       <c r="E19" t="n">
-        <v>452.4170045133874</v>
+        <v>379.418050653931</v>
       </c>
       <c r="F19" t="n">
-        <v>280.5552302879478</v>
+        <v>207.5562764284915</v>
       </c>
       <c r="G19" t="n">
-        <v>115.188423092467</v>
+        <v>42.18946923301057</v>
       </c>
       <c r="H19" t="n">
-        <v>115.188423092467</v>
+        <v>42.18946923301057</v>
       </c>
       <c r="I19" t="n">
-        <v>42.18946923301056</v>
+        <v>42.18946923301057</v>
       </c>
       <c r="J19" t="n">
-        <v>83.44117394564142</v>
+        <v>161.3628905938623</v>
       </c>
       <c r="K19" t="n">
-        <v>358.8939605092179</v>
+        <v>489.2531188135795</v>
       </c>
       <c r="L19" t="n">
-        <v>843.2925464503519</v>
+        <v>973.6517047547136</v>
       </c>
       <c r="M19" t="n">
-        <v>1365.387228208858</v>
+        <v>1088.062252251214</v>
       </c>
       <c r="N19" t="n">
-        <v>1876.387119407636</v>
+        <v>1201.029220608112</v>
       </c>
       <c r="O19" t="n">
-        <v>1977.429521969783</v>
+        <v>1513.299820018577</v>
       </c>
       <c r="P19" t="n">
-        <v>2060.791182666785</v>
+        <v>1909.417685288886</v>
       </c>
       <c r="Q19" t="n">
         <v>2109.473461650528</v>
@@ -5700,25 +5700,25 @@
         <v>2109.473461650528</v>
       </c>
       <c r="S19" t="n">
-        <v>1954.851519008028</v>
+        <v>1954.851519008029</v>
       </c>
       <c r="T19" t="n">
-        <v>1715.315592868791</v>
+        <v>1715.315592868792</v>
       </c>
       <c r="U19" t="n">
-        <v>1715.315592868791</v>
+        <v>1715.315592868792</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.60412547682</v>
+        <v>1715.315592868792</v>
       </c>
       <c r="W19" t="n">
-        <v>1158.751721649333</v>
+        <v>1440.463189041305</v>
       </c>
       <c r="X19" t="n">
-        <v>1016.940541791876</v>
+        <v>1197.89929248711</v>
       </c>
       <c r="Y19" t="n">
-        <v>790.5977734816179</v>
+        <v>971.5565241768518</v>
       </c>
     </row>
     <row r="20">
@@ -5728,16 +5728,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1171.759361280639</v>
+        <v>885.1579677557531</v>
       </c>
       <c r="C20" t="n">
-        <v>744.8586312939397</v>
+        <v>745.7113893354822</v>
       </c>
       <c r="D20" t="n">
-        <v>744.8586312939397</v>
+        <v>745.7113893354822</v>
       </c>
       <c r="E20" t="n">
-        <v>744.8586312939397</v>
+        <v>319.7344494833398</v>
       </c>
       <c r="F20" t="n">
         <v>319.7344494833398</v>
@@ -5749,22 +5749,22 @@
         <v>42.18946923301057</v>
       </c>
       <c r="I20" t="n">
-        <v>82.9706470875833</v>
+        <v>82.97064708758376</v>
       </c>
       <c r="J20" t="n">
-        <v>218.9221049399271</v>
+        <v>218.922104939928</v>
       </c>
       <c r="K20" t="n">
-        <v>430.9231076957175</v>
+        <v>430.9231076957185</v>
       </c>
       <c r="L20" t="n">
-        <v>699.9256343271975</v>
+        <v>699.9256343271986</v>
       </c>
       <c r="M20" t="n">
-        <v>1004.389060027289</v>
+        <v>1004.38906002729</v>
       </c>
       <c r="N20" t="n">
-        <v>1314.528766123479</v>
+        <v>1314.52876612348</v>
       </c>
       <c r="O20" t="n">
         <v>1605.217916110744</v>
@@ -5773,7 +5773,7 @@
         <v>1847.70796765412</v>
       </c>
       <c r="Q20" t="n">
-        <v>2021.979826295251</v>
+        <v>2021.97982629525</v>
       </c>
       <c r="R20" t="n">
         <v>2109.473461650528</v>
@@ -5782,22 +5782,22 @@
         <v>2109.473461650528</v>
       </c>
       <c r="T20" t="n">
-        <v>2109.473461650528</v>
+        <v>1897.234884563253</v>
       </c>
       <c r="U20" t="n">
-        <v>1988.816630158002</v>
+        <v>1639.038732329157</v>
       </c>
       <c r="V20" t="n">
-        <v>1988.816630158002</v>
+        <v>1281.549317455406</v>
       </c>
       <c r="W20" t="n">
-        <v>1988.816630158002</v>
+        <v>885.1579677557531</v>
       </c>
       <c r="X20" t="n">
-        <v>1577.096631325749</v>
+        <v>885.1579677557531</v>
       </c>
       <c r="Y20" t="n">
-        <v>1171.759361280639</v>
+        <v>885.1579677557531</v>
       </c>
     </row>
     <row r="21">
@@ -5822,37 +5822,37 @@
         <v>178.3029715687193</v>
       </c>
       <c r="G21" t="n">
-        <v>85.31098196411675</v>
+        <v>85.31098196411673</v>
       </c>
       <c r="H21" t="n">
         <v>42.18946923301057</v>
       </c>
       <c r="I21" t="n">
-        <v>62.00829666969776</v>
+        <v>85.46560251410961</v>
       </c>
       <c r="J21" t="n">
-        <v>139.922153475317</v>
+        <v>163.3794593197289</v>
       </c>
       <c r="K21" t="n">
-        <v>285.7895037104463</v>
+        <v>309.2468095548581</v>
       </c>
       <c r="L21" t="n">
-        <v>489.4535701883732</v>
+        <v>512.9108760327852</v>
       </c>
       <c r="M21" t="n">
-        <v>730.2654206326901</v>
+        <v>907.1888127226371</v>
       </c>
       <c r="N21" t="n">
-        <v>979.792248999052</v>
+        <v>1156.715641088999</v>
       </c>
       <c r="O21" t="n">
-        <v>1204.449831211625</v>
+        <v>1381.373223301572</v>
       </c>
       <c r="P21" t="n">
-        <v>1381.615723834994</v>
+        <v>1558.539115924941</v>
       </c>
       <c r="Q21" t="n">
-        <v>1774.31345419543</v>
+        <v>1668.857953910524</v>
       </c>
       <c r="R21" t="n">
         <v>1815.489017493114</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>642.2314188474251</v>
+        <v>374.1651365343616</v>
       </c>
       <c r="C22" t="n">
-        <v>470.258855726341</v>
+        <v>374.1651365343616</v>
       </c>
       <c r="D22" t="n">
-        <v>470.258855726341</v>
+        <v>374.1651365343616</v>
       </c>
       <c r="E22" t="n">
-        <v>422.9321118546549</v>
+        <v>374.1651365343616</v>
       </c>
       <c r="F22" t="n">
-        <v>251.0703376292153</v>
+        <v>343.4381909652398</v>
       </c>
       <c r="G22" t="n">
-        <v>251.0703376292153</v>
+        <v>178.0713837697589</v>
       </c>
       <c r="H22" t="n">
-        <v>115.188423092467</v>
+        <v>42.18946923301057</v>
       </c>
       <c r="I22" t="n">
         <v>42.18946923301057</v>
@@ -5916,16 +5916,16 @@
         <v>489.2531188135795</v>
       </c>
       <c r="L22" t="n">
-        <v>597.2628111635486</v>
+        <v>973.6517047547136</v>
       </c>
       <c r="M22" t="n">
-        <v>1119.357492922054</v>
+        <v>1495.746386513219</v>
       </c>
       <c r="N22" t="n">
-        <v>1232.324461278952</v>
+        <v>1725.013622029737</v>
       </c>
       <c r="O22" t="n">
-        <v>1513.299820018577</v>
+        <v>1826.056024591884</v>
       </c>
       <c r="P22" t="n">
         <v>1909.417685288886</v>
@@ -5934,28 +5934,28 @@
         <v>2109.473461650528</v>
       </c>
       <c r="R22" t="n">
-        <v>2102.459791754789</v>
+        <v>2109.473461650528</v>
       </c>
       <c r="S22" t="n">
-        <v>1947.837849112289</v>
+        <v>2109.473461650528</v>
       </c>
       <c r="T22" t="n">
-        <v>1947.837849112289</v>
+        <v>1869.937535511291</v>
       </c>
       <c r="U22" t="n">
-        <v>1667.701954931336</v>
+        <v>1589.801641330338</v>
       </c>
       <c r="V22" t="n">
-        <v>1385.990487539365</v>
+        <v>1308.090173938367</v>
       </c>
       <c r="W22" t="n">
-        <v>1111.138083711878</v>
+        <v>1033.23777011088</v>
       </c>
       <c r="X22" t="n">
-        <v>868.574187157683</v>
+        <v>790.6738735566852</v>
       </c>
       <c r="Y22" t="n">
-        <v>642.2314188474251</v>
+        <v>564.3311052464272</v>
       </c>
     </row>
     <row r="23">
@@ -5965,37 +5965,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1317.50700184531</v>
+        <v>1320.191320882453</v>
       </c>
       <c r="C23" t="n">
-        <v>890.6062718586102</v>
+        <v>893.2905908957528</v>
       </c>
       <c r="D23" t="n">
-        <v>467.3136510436104</v>
+        <v>893.2905908957528</v>
       </c>
       <c r="E23" t="n">
         <v>467.3136510436104</v>
       </c>
       <c r="F23" t="n">
-        <v>42.18946923301057</v>
+        <v>42.18946923301056</v>
       </c>
       <c r="G23" t="n">
-        <v>42.18946923301057</v>
+        <v>42.18946923301056</v>
       </c>
       <c r="H23" t="n">
-        <v>42.18946923301057</v>
+        <v>42.18946923301056</v>
       </c>
       <c r="I23" t="n">
-        <v>82.9706470875833</v>
+        <v>82.97064708758364</v>
       </c>
       <c r="J23" t="n">
-        <v>218.9221049399271</v>
+        <v>218.9221049399276</v>
       </c>
       <c r="K23" t="n">
-        <v>430.9231076957175</v>
+        <v>430.923107695718</v>
       </c>
       <c r="L23" t="n">
-        <v>699.9256343271975</v>
+        <v>699.9256343271981</v>
       </c>
       <c r="M23" t="n">
         <v>1004.389060027289</v>
@@ -6004,13 +6004,13 @@
         <v>1314.528766123479</v>
       </c>
       <c r="O23" t="n">
-        <v>1605.217916110744</v>
+        <v>1605.217916110743</v>
       </c>
       <c r="P23" t="n">
-        <v>1847.70796765412</v>
+        <v>1847.707967654119</v>
       </c>
       <c r="Q23" t="n">
-        <v>2021.979826295251</v>
+        <v>2021.97982629525</v>
       </c>
       <c r="R23" t="n">
         <v>2109.473461650528</v>
@@ -6019,22 +6019,22 @@
         <v>2050.327155020903</v>
       </c>
       <c r="T23" t="n">
-        <v>2050.327155020903</v>
+        <v>1838.088577933628</v>
       </c>
       <c r="U23" t="n">
-        <v>2050.327155020903</v>
+        <v>1579.892425699531</v>
       </c>
       <c r="V23" t="n">
-        <v>2050.327155020903</v>
+        <v>1579.892425699531</v>
       </c>
       <c r="W23" t="n">
-        <v>2050.327155020903</v>
+        <v>1579.892425699531</v>
       </c>
       <c r="X23" t="n">
-        <v>1722.84427189042</v>
+        <v>1579.892425699531</v>
       </c>
       <c r="Y23" t="n">
-        <v>1317.50700184531</v>
+        <v>1579.892425699531</v>
       </c>
     </row>
     <row r="24">
@@ -6059,34 +6059,34 @@
         <v>178.3029715687193</v>
       </c>
       <c r="G24" t="n">
-        <v>85.31098196411675</v>
+        <v>85.31098196411673</v>
       </c>
       <c r="H24" t="n">
-        <v>42.18946923301057</v>
+        <v>42.18946923301056</v>
       </c>
       <c r="I24" t="n">
-        <v>62.00829666969776</v>
+        <v>85.46560251410959</v>
       </c>
       <c r="J24" t="n">
-        <v>139.922153475317</v>
+        <v>316.8455455652643</v>
       </c>
       <c r="K24" t="n">
-        <v>285.7895037104463</v>
+        <v>462.7128958003935</v>
       </c>
       <c r="L24" t="n">
-        <v>489.4535701883732</v>
+        <v>666.3769622783205</v>
       </c>
       <c r="M24" t="n">
-        <v>730.2654206326901</v>
+        <v>907.1888127226373</v>
       </c>
       <c r="N24" t="n">
-        <v>979.792248999052</v>
+        <v>1156.715641088999</v>
       </c>
       <c r="O24" t="n">
-        <v>1204.449831211625</v>
+        <v>1381.373223301572</v>
       </c>
       <c r="P24" t="n">
-        <v>1381.615723834994</v>
+        <v>1558.539115924941</v>
       </c>
       <c r="Q24" t="n">
         <v>1668.857953910524</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>995.4361635258383</v>
+        <v>374.1651365343611</v>
       </c>
       <c r="C25" t="n">
-        <v>823.4636004047543</v>
+        <v>202.1925734132771</v>
       </c>
       <c r="D25" t="n">
-        <v>660.146827531525</v>
+        <v>202.1925734132771</v>
       </c>
       <c r="E25" t="n">
-        <v>588.2989190501357</v>
+        <v>202.1925734132771</v>
       </c>
       <c r="F25" t="n">
-        <v>416.4371448246962</v>
+        <v>42.18946923301056</v>
       </c>
       <c r="G25" t="n">
-        <v>251.0703376292153</v>
+        <v>42.18946923301056</v>
       </c>
       <c r="H25" t="n">
-        <v>115.188423092467</v>
+        <v>42.18946923301056</v>
       </c>
       <c r="I25" t="n">
-        <v>42.18946923301057</v>
+        <v>42.18946923301056</v>
       </c>
       <c r="J25" t="n">
-        <v>83.44117394564142</v>
+        <v>161.3628905938623</v>
       </c>
       <c r="K25" t="n">
-        <v>411.3314021653587</v>
+        <v>489.2531188135795</v>
       </c>
       <c r="L25" t="n">
-        <v>895.7299881064927</v>
+        <v>973.6517047547136</v>
       </c>
       <c r="M25" t="n">
-        <v>1052.63102363555</v>
+        <v>1088.062252251214</v>
       </c>
       <c r="N25" t="n">
-        <v>1563.630914834328</v>
+        <v>1201.029220608112</v>
       </c>
       <c r="O25" t="n">
-        <v>1664.673317396476</v>
+        <v>1513.299820018576</v>
       </c>
       <c r="P25" t="n">
-        <v>2060.791182666785</v>
+        <v>1909.417685288886</v>
       </c>
       <c r="Q25" t="n">
         <v>2109.473461650528</v>
       </c>
       <c r="R25" t="n">
-        <v>2102.459791754789</v>
+        <v>2109.473461650528</v>
       </c>
       <c r="S25" t="n">
-        <v>1947.837849112289</v>
+        <v>2109.473461650528</v>
       </c>
       <c r="T25" t="n">
-        <v>1708.301922973052</v>
+        <v>1869.937535511291</v>
       </c>
       <c r="U25" t="n">
-        <v>1428.166028792099</v>
+        <v>1589.801641330338</v>
       </c>
       <c r="V25" t="n">
-        <v>1428.166028792099</v>
+        <v>1308.090173938367</v>
       </c>
       <c r="W25" t="n">
-        <v>1428.166028792099</v>
+        <v>1033.23777011088</v>
       </c>
       <c r="X25" t="n">
-        <v>1185.602132237904</v>
+        <v>790.6738735566847</v>
       </c>
       <c r="Y25" t="n">
-        <v>1185.602132237904</v>
+        <v>564.3311052464268</v>
       </c>
     </row>
     <row r="26">
@@ -6202,52 +6202,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>763.6527117083481</v>
+        <v>1743.483941697452</v>
       </c>
       <c r="C26" t="n">
-        <v>763.6527117083481</v>
+        <v>1316.583211710752</v>
       </c>
       <c r="D26" t="n">
-        <v>763.6527117083481</v>
+        <v>893.2905908957528</v>
       </c>
       <c r="E26" t="n">
-        <v>444.544067024923</v>
+        <v>467.3136510436104</v>
       </c>
       <c r="F26" t="n">
-        <v>444.544067024923</v>
+        <v>42.18946923301057</v>
       </c>
       <c r="G26" t="n">
-        <v>42.18946923301056</v>
+        <v>42.18946923301057</v>
       </c>
       <c r="H26" t="n">
-        <v>42.18946923301056</v>
+        <v>42.18946923301057</v>
       </c>
       <c r="I26" t="n">
-        <v>82.97064708758353</v>
+        <v>82.97064708758363</v>
       </c>
       <c r="J26" t="n">
-        <v>218.9221049399273</v>
+        <v>218.9221049399282</v>
       </c>
       <c r="K26" t="n">
-        <v>430.9231076957177</v>
+        <v>430.9231076957186</v>
       </c>
       <c r="L26" t="n">
-        <v>699.9256343271977</v>
+        <v>699.9256343271986</v>
       </c>
       <c r="M26" t="n">
-        <v>1004.389060027289</v>
+        <v>1004.38906002729</v>
       </c>
       <c r="N26" t="n">
-        <v>1314.528766123479</v>
+        <v>1314.52876612348</v>
       </c>
       <c r="O26" t="n">
-        <v>1605.217916110743</v>
+        <v>1605.217916110744</v>
       </c>
       <c r="P26" t="n">
-        <v>1847.707967654119</v>
+        <v>1847.70796765412</v>
       </c>
       <c r="Q26" t="n">
-        <v>2021.97982629525</v>
+        <v>2021.979826295251</v>
       </c>
       <c r="R26" t="n">
         <v>2109.473461650528</v>
@@ -6256,22 +6256,22 @@
         <v>2050.327155020903</v>
       </c>
       <c r="T26" t="n">
-        <v>1838.088577933628</v>
+        <v>2050.327155020903</v>
       </c>
       <c r="U26" t="n">
-        <v>1579.892425699531</v>
+        <v>2050.327155020903</v>
       </c>
       <c r="V26" t="n">
-        <v>1579.892425699531</v>
+        <v>2050.327155020903</v>
       </c>
       <c r="W26" t="n">
-        <v>1183.501075999878</v>
+        <v>2050.327155020903</v>
       </c>
       <c r="X26" t="n">
-        <v>1183.501075999878</v>
+        <v>2050.327155020903</v>
       </c>
       <c r="Y26" t="n">
-        <v>1183.501075999878</v>
+        <v>1743.483941697452</v>
       </c>
     </row>
     <row r="27">
@@ -6296,37 +6296,37 @@
         <v>178.3029715687193</v>
       </c>
       <c r="G27" t="n">
-        <v>85.31098196411673</v>
+        <v>85.31098196411675</v>
       </c>
       <c r="H27" t="n">
-        <v>42.18946923301056</v>
+        <v>42.18946923301057</v>
       </c>
       <c r="I27" t="n">
-        <v>62.00829666969775</v>
+        <v>85.46560251410961</v>
       </c>
       <c r="J27" t="n">
-        <v>139.922153475317</v>
+        <v>316.8455455652644</v>
       </c>
       <c r="K27" t="n">
-        <v>285.7895037104462</v>
+        <v>462.7128958003936</v>
       </c>
       <c r="L27" t="n">
-        <v>489.4535701883732</v>
+        <v>666.3769622783205</v>
       </c>
       <c r="M27" t="n">
-        <v>730.2654206326899</v>
+        <v>907.1888127226373</v>
       </c>
       <c r="N27" t="n">
-        <v>979.7922489990519</v>
+        <v>1156.715641088999</v>
       </c>
       <c r="O27" t="n">
-        <v>1204.449831211625</v>
+        <v>1381.373223301572</v>
       </c>
       <c r="P27" t="n">
-        <v>1381.615723834994</v>
+        <v>1558.539115924941</v>
       </c>
       <c r="Q27" t="n">
-        <v>1774.31345419543</v>
+        <v>1668.857953910524</v>
       </c>
       <c r="R27" t="n">
         <v>1815.489017493114</v>
@@ -6360,49 +6360,49 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>516.141363842345</v>
+        <v>882.2193722365907</v>
       </c>
       <c r="C28" t="n">
-        <v>516.141363842345</v>
+        <v>752.4570905750306</v>
       </c>
       <c r="D28" t="n">
-        <v>516.141363842345</v>
+        <v>589.1403177018013</v>
       </c>
       <c r="E28" t="n">
-        <v>349.9331579951985</v>
+        <v>422.9321118546549</v>
       </c>
       <c r="F28" t="n">
-        <v>178.0713837697589</v>
+        <v>251.0703376292153</v>
       </c>
       <c r="G28" t="n">
-        <v>178.0713837697589</v>
+        <v>251.0703376292153</v>
       </c>
       <c r="H28" t="n">
-        <v>42.18946923301056</v>
+        <v>115.188423092467</v>
       </c>
       <c r="I28" t="n">
-        <v>42.18946923301056</v>
+        <v>42.18946923301057</v>
       </c>
       <c r="J28" t="n">
         <v>161.3628905938623</v>
       </c>
       <c r="K28" t="n">
-        <v>241.9705096995575</v>
+        <v>489.2531188135795</v>
       </c>
       <c r="L28" t="n">
-        <v>349.9802020495265</v>
+        <v>973.6517047547136</v>
       </c>
       <c r="M28" t="n">
-        <v>872.0748838080322</v>
+        <v>1495.746386513219</v>
       </c>
       <c r="N28" t="n">
-        <v>1383.07477500681</v>
+        <v>1725.013622029737</v>
       </c>
       <c r="O28" t="n">
-        <v>1861.819501872161</v>
+        <v>1826.056024591884</v>
       </c>
       <c r="P28" t="n">
-        <v>2060.791182666785</v>
+        <v>1909.417685288886</v>
       </c>
       <c r="Q28" t="n">
         <v>2109.473461650528</v>
@@ -6420,16 +6420,16 @@
         <v>1589.801641330338</v>
       </c>
       <c r="V28" t="n">
-        <v>1308.090173938367</v>
+        <v>1589.801641330338</v>
       </c>
       <c r="W28" t="n">
-        <v>1175.213997418863</v>
+        <v>1314.949237502851</v>
       </c>
       <c r="X28" t="n">
-        <v>932.6501008646685</v>
+        <v>1072.385340948656</v>
       </c>
       <c r="Y28" t="n">
-        <v>706.3073325544106</v>
+        <v>1072.385340948656</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1851.277309416432</v>
+        <v>1316.583211710752</v>
       </c>
       <c r="C29" t="n">
-        <v>1718.937809502665</v>
+        <v>1316.583211710752</v>
       </c>
       <c r="D29" t="n">
-        <v>1295.645188687665</v>
+        <v>893.2905908957528</v>
       </c>
       <c r="E29" t="n">
-        <v>869.6682488355227</v>
+        <v>467.3136510436104</v>
       </c>
       <c r="F29" t="n">
-        <v>444.544067024923</v>
+        <v>42.18946923301057</v>
       </c>
       <c r="G29" t="n">
         <v>42.18946923301057</v>
@@ -6490,25 +6490,25 @@
         <v>2109.473461650528</v>
       </c>
       <c r="S29" t="n">
-        <v>2109.473461650528</v>
+        <v>2050.327155020903</v>
       </c>
       <c r="T29" t="n">
-        <v>2109.473461650528</v>
+        <v>1994.627728236379</v>
       </c>
       <c r="U29" t="n">
-        <v>1851.277309416432</v>
+        <v>1736.431576002283</v>
       </c>
       <c r="V29" t="n">
-        <v>1851.277309416432</v>
+        <v>1736.431576002283</v>
       </c>
       <c r="W29" t="n">
-        <v>1851.277309416432</v>
+        <v>1736.431576002283</v>
       </c>
       <c r="X29" t="n">
-        <v>1851.277309416432</v>
+        <v>1736.431576002283</v>
       </c>
       <c r="Y29" t="n">
-        <v>1851.277309416432</v>
+        <v>1736.431576002283</v>
       </c>
     </row>
     <row r="30">
@@ -6542,28 +6542,28 @@
         <v>85.46560251410961</v>
       </c>
       <c r="J30" t="n">
-        <v>163.3794593197289</v>
+        <v>316.8455455652644</v>
       </c>
       <c r="K30" t="n">
-        <v>309.2468095548581</v>
+        <v>462.7128958003936</v>
       </c>
       <c r="L30" t="n">
-        <v>512.9108760327852</v>
+        <v>666.3769622783205</v>
       </c>
       <c r="M30" t="n">
-        <v>1012.644313007543</v>
+        <v>907.1888127226373</v>
       </c>
       <c r="N30" t="n">
-        <v>1262.171141373905</v>
+        <v>1156.715641088999</v>
       </c>
       <c r="O30" t="n">
-        <v>1486.828723586478</v>
+        <v>1381.373223301572</v>
       </c>
       <c r="P30" t="n">
-        <v>1663.994616209847</v>
+        <v>1558.539115924941</v>
       </c>
       <c r="Q30" t="n">
-        <v>1774.31345419543</v>
+        <v>1668.857953910524</v>
       </c>
       <c r="R30" t="n">
         <v>1815.489017493114</v>
@@ -6597,46 +6597,46 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>409.7091626039277</v>
+        <v>681.5081710378258</v>
       </c>
       <c r="C31" t="n">
-        <v>409.7091626039277</v>
+        <v>681.5081710378258</v>
       </c>
       <c r="D31" t="n">
-        <v>409.7091626039277</v>
+        <v>681.5081710378258</v>
       </c>
       <c r="E31" t="n">
-        <v>243.5009567567812</v>
+        <v>515.2999651906794</v>
       </c>
       <c r="F31" t="n">
-        <v>243.5009567567812</v>
+        <v>343.4381909652398</v>
       </c>
       <c r="G31" t="n">
-        <v>78.13414956130035</v>
+        <v>178.0713837697589</v>
       </c>
       <c r="H31" t="n">
-        <v>78.13414956130035</v>
+        <v>42.18946923301057</v>
       </c>
       <c r="I31" t="n">
         <v>42.18946923301057</v>
       </c>
       <c r="J31" t="n">
-        <v>83.44117394564142</v>
+        <v>161.3628905938623</v>
       </c>
       <c r="K31" t="n">
-        <v>164.0487930513366</v>
+        <v>489.2531188135795</v>
       </c>
       <c r="L31" t="n">
-        <v>272.0584854013057</v>
+        <v>691.919049072453</v>
       </c>
       <c r="M31" t="n">
-        <v>794.1531671598115</v>
+        <v>1214.013730830959</v>
       </c>
       <c r="N31" t="n">
-        <v>1305.15305835859</v>
+        <v>1725.013622029737</v>
       </c>
       <c r="O31" t="n">
-        <v>1783.89778522394</v>
+        <v>1826.056024591884</v>
       </c>
       <c r="P31" t="n">
         <v>1909.417685288886</v>
@@ -6645,28 +6645,28 @@
         <v>2109.473461650528</v>
       </c>
       <c r="R31" t="n">
-        <v>2109.473461650528</v>
+        <v>2106.42006625694</v>
       </c>
       <c r="S31" t="n">
-        <v>1954.851519008029</v>
+        <v>1951.79812361444</v>
       </c>
       <c r="T31" t="n">
-        <v>1715.315592868792</v>
+        <v>1712.262197475203</v>
       </c>
       <c r="U31" t="n">
-        <v>1435.179698687839</v>
+        <v>1432.12630329425</v>
       </c>
       <c r="V31" t="n">
-        <v>1153.468231295868</v>
+        <v>1150.414835902279</v>
       </c>
       <c r="W31" t="n">
-        <v>878.6158274683805</v>
+        <v>1150.414835902279</v>
       </c>
       <c r="X31" t="n">
-        <v>636.0519309141856</v>
+        <v>907.8509393480838</v>
       </c>
       <c r="Y31" t="n">
-        <v>409.7091626039277</v>
+        <v>681.5081710378258</v>
       </c>
     </row>
     <row r="32">
@@ -6676,37 +6676,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>893.2905908957528</v>
+        <v>1317.50700184531</v>
       </c>
       <c r="C32" t="n">
-        <v>893.2905908957528</v>
+        <v>890.6062718586102</v>
       </c>
       <c r="D32" t="n">
-        <v>893.2905908957528</v>
+        <v>467.3136510436104</v>
       </c>
       <c r="E32" t="n">
         <v>467.3136510436104</v>
       </c>
       <c r="F32" t="n">
-        <v>42.18946923301057</v>
+        <v>42.18946923301056</v>
       </c>
       <c r="G32" t="n">
-        <v>42.18946923301057</v>
+        <v>42.18946923301056</v>
       </c>
       <c r="H32" t="n">
-        <v>42.18946923301057</v>
+        <v>42.18946923301056</v>
       </c>
       <c r="I32" t="n">
-        <v>82.97064708758363</v>
+        <v>82.97064708758353</v>
       </c>
       <c r="J32" t="n">
-        <v>218.9221049399276</v>
+        <v>218.9221049399273</v>
       </c>
       <c r="K32" t="n">
-        <v>430.9231076957179</v>
+        <v>430.9231076957177</v>
       </c>
       <c r="L32" t="n">
-        <v>699.9256343271979</v>
+        <v>699.9256343271977</v>
       </c>
       <c r="M32" t="n">
         <v>1004.389060027289</v>
@@ -6721,7 +6721,7 @@
         <v>1847.707967654119</v>
       </c>
       <c r="Q32" t="n">
-        <v>2021.979826295251</v>
+        <v>2021.97982629525</v>
       </c>
       <c r="R32" t="n">
         <v>2109.473461650528</v>
@@ -6730,22 +6730,22 @@
         <v>2050.327155020903</v>
       </c>
       <c r="T32" t="n">
-        <v>1838.088577933628</v>
+        <v>2050.327155020903</v>
       </c>
       <c r="U32" t="n">
-        <v>1579.892425699532</v>
+        <v>2050.327155020903</v>
       </c>
       <c r="V32" t="n">
-        <v>1222.403010825781</v>
+        <v>2050.327155020903</v>
       </c>
       <c r="W32" t="n">
-        <v>1222.403010825781</v>
+        <v>2050.327155020903</v>
       </c>
       <c r="X32" t="n">
-        <v>893.2905908957528</v>
+        <v>1638.60715618865</v>
       </c>
       <c r="Y32" t="n">
-        <v>893.2905908957528</v>
+        <v>1638.60715618865</v>
       </c>
     </row>
     <row r="33">
@@ -6770,16 +6770,16 @@
         <v>178.3029715687193</v>
       </c>
       <c r="G33" t="n">
-        <v>85.31098196411675</v>
+        <v>85.31098196411673</v>
       </c>
       <c r="H33" t="n">
-        <v>42.18946923301057</v>
+        <v>42.18946923301056</v>
       </c>
       <c r="I33" t="n">
-        <v>85.46560251410961</v>
+        <v>85.46560251410959</v>
       </c>
       <c r="J33" t="n">
-        <v>163.3794593197289</v>
+        <v>316.8455455652644</v>
       </c>
       <c r="K33" t="n">
         <v>462.7128958003936</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>422.9321118546549</v>
+        <v>386.0238065795342</v>
       </c>
       <c r="C34" t="n">
-        <v>422.9321118546549</v>
+        <v>214.0512434584501</v>
       </c>
       <c r="D34" t="n">
-        <v>422.9321118546549</v>
+        <v>214.0512434584501</v>
       </c>
       <c r="E34" t="n">
-        <v>422.9321118546549</v>
+        <v>214.0512434584501</v>
       </c>
       <c r="F34" t="n">
-        <v>251.0703376292153</v>
+        <v>42.18946923301056</v>
       </c>
       <c r="G34" t="n">
-        <v>251.0703376292153</v>
+        <v>42.18946923301056</v>
       </c>
       <c r="H34" t="n">
-        <v>115.188423092467</v>
+        <v>42.18946923301056</v>
       </c>
       <c r="I34" t="n">
-        <v>42.18946923301057</v>
+        <v>42.18946923301056</v>
       </c>
       <c r="J34" t="n">
         <v>83.44117394564142</v>
       </c>
       <c r="K34" t="n">
-        <v>322.7789913586938</v>
+        <v>164.0487930513366</v>
       </c>
       <c r="L34" t="n">
-        <v>807.1775772998278</v>
+        <v>648.4473789924706</v>
       </c>
       <c r="M34" t="n">
-        <v>921.5881247963284</v>
+        <v>1170.542060750976</v>
       </c>
       <c r="N34" t="n">
-        <v>1034.555093153226</v>
+        <v>1681.541951949754</v>
       </c>
       <c r="O34" t="n">
-        <v>1513.299820018577</v>
+        <v>1782.584354511902</v>
       </c>
       <c r="P34" t="n">
-        <v>1909.417685288886</v>
+        <v>2060.791182666785</v>
       </c>
       <c r="Q34" t="n">
         <v>2109.473461650528</v>
       </c>
       <c r="R34" t="n">
-        <v>2102.459791754789</v>
+        <v>2109.473461650528</v>
       </c>
       <c r="S34" t="n">
-        <v>1947.837849112289</v>
+        <v>1954.851519008028</v>
       </c>
       <c r="T34" t="n">
-        <v>1918.704510831584</v>
+        <v>1881.796205556464</v>
       </c>
       <c r="U34" t="n">
-        <v>1638.568616650631</v>
+        <v>1601.660311375511</v>
       </c>
       <c r="V34" t="n">
-        <v>1356.85714925866</v>
+        <v>1319.94884398354</v>
       </c>
       <c r="W34" t="n">
-        <v>1082.004745431173</v>
+        <v>1045.096440156052</v>
       </c>
       <c r="X34" t="n">
-        <v>839.4408488769784</v>
+        <v>802.5325436018577</v>
       </c>
       <c r="Y34" t="n">
-        <v>613.0980805667205</v>
+        <v>576.1897752915997</v>
       </c>
     </row>
     <row r="35">
@@ -6913,52 +6913,52 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1169.004010150482</v>
+        <v>1316.583211710752</v>
       </c>
       <c r="C35" t="n">
-        <v>1169.004010150482</v>
+        <v>1316.583211710752</v>
       </c>
       <c r="D35" t="n">
-        <v>745.7113893354822</v>
+        <v>893.2905908957528</v>
       </c>
       <c r="E35" t="n">
-        <v>319.7344494833398</v>
+        <v>467.3136510436104</v>
       </c>
       <c r="F35" t="n">
-        <v>319.7344494833398</v>
+        <v>42.18946923301057</v>
       </c>
       <c r="G35" t="n">
-        <v>319.7344494833398</v>
+        <v>42.18946923301057</v>
       </c>
       <c r="H35" t="n">
-        <v>42.18946923301056</v>
+        <v>42.18946923301057</v>
       </c>
       <c r="I35" t="n">
         <v>82.97064708758353</v>
       </c>
       <c r="J35" t="n">
-        <v>218.9221049399273</v>
+        <v>218.9221049399275</v>
       </c>
       <c r="K35" t="n">
-        <v>430.9231076957177</v>
+        <v>430.9231076957179</v>
       </c>
       <c r="L35" t="n">
-        <v>699.9256343271977</v>
+        <v>699.9256343271978</v>
       </c>
       <c r="M35" t="n">
         <v>1004.389060027289</v>
       </c>
       <c r="N35" t="n">
-        <v>1314.528766123479</v>
+        <v>1314.52876612348</v>
       </c>
       <c r="O35" t="n">
-        <v>1605.217916110743</v>
+        <v>1605.217916110744</v>
       </c>
       <c r="P35" t="n">
-        <v>1847.707967654119</v>
+        <v>1847.70796765412</v>
       </c>
       <c r="Q35" t="n">
-        <v>2021.97982629525</v>
+        <v>2021.979826295251</v>
       </c>
       <c r="R35" t="n">
         <v>2109.473461650528</v>
@@ -6967,22 +6967,22 @@
         <v>2109.473461650528</v>
       </c>
       <c r="T35" t="n">
-        <v>1897.234884563253</v>
+        <v>2109.473461650528</v>
       </c>
       <c r="U35" t="n">
-        <v>1897.234884563253</v>
+        <v>2109.473461650528</v>
       </c>
       <c r="V35" t="n">
-        <v>1897.234884563253</v>
+        <v>1751.984046776778</v>
       </c>
       <c r="W35" t="n">
-        <v>1580.724008982735</v>
+        <v>1355.592697077125</v>
       </c>
       <c r="X35" t="n">
-        <v>1169.004010150482</v>
+        <v>1316.583211710752</v>
       </c>
       <c r="Y35" t="n">
-        <v>1169.004010150482</v>
+        <v>1316.583211710752</v>
       </c>
     </row>
     <row r="36">
@@ -7007,37 +7007,37 @@
         <v>178.3029715687193</v>
       </c>
       <c r="G36" t="n">
-        <v>85.31098196411673</v>
+        <v>85.31098196411675</v>
       </c>
       <c r="H36" t="n">
-        <v>42.18946923301056</v>
+        <v>42.18946923301057</v>
       </c>
       <c r="I36" t="n">
-        <v>85.46560251410959</v>
+        <v>62.00829666969776</v>
       </c>
       <c r="J36" t="n">
-        <v>316.8455455652644</v>
+        <v>139.922153475317</v>
       </c>
       <c r="K36" t="n">
-        <v>462.7128958003936</v>
+        <v>285.7895037104463</v>
       </c>
       <c r="L36" t="n">
-        <v>666.3769622783205</v>
+        <v>490.5496312490374</v>
       </c>
       <c r="M36" t="n">
-        <v>907.1888127226373</v>
+        <v>1012.644313007543</v>
       </c>
       <c r="N36" t="n">
-        <v>1156.715641088999</v>
+        <v>1262.171141373905</v>
       </c>
       <c r="O36" t="n">
-        <v>1381.373223301572</v>
+        <v>1486.828723586478</v>
       </c>
       <c r="P36" t="n">
-        <v>1558.539115924941</v>
+        <v>1663.994616209847</v>
       </c>
       <c r="Q36" t="n">
-        <v>1668.857953910524</v>
+        <v>1774.31345419543</v>
       </c>
       <c r="R36" t="n">
         <v>1815.489017493114</v>
@@ -7071,46 +7071,46 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>880.9155924953908</v>
+        <v>377.4788052273238</v>
       </c>
       <c r="C37" t="n">
-        <v>708.9430293743068</v>
+        <v>205.5062421062399</v>
       </c>
       <c r="D37" t="n">
-        <v>545.6262565010775</v>
+        <v>42.18946923301057</v>
       </c>
       <c r="E37" t="n">
-        <v>379.418050653931</v>
+        <v>42.18946923301057</v>
       </c>
       <c r="F37" t="n">
-        <v>207.5562764284914</v>
+        <v>42.18946923301057</v>
       </c>
       <c r="G37" t="n">
-        <v>42.18946923301056</v>
+        <v>42.18946923301057</v>
       </c>
       <c r="H37" t="n">
-        <v>42.18946923301056</v>
+        <v>42.18946923301057</v>
       </c>
       <c r="I37" t="n">
-        <v>42.18946923301056</v>
+        <v>42.18946923301057</v>
       </c>
       <c r="J37" t="n">
-        <v>161.3628905938623</v>
+        <v>83.44117394564142</v>
       </c>
       <c r="K37" t="n">
-        <v>241.9705096995575</v>
+        <v>164.0487930513366</v>
       </c>
       <c r="L37" t="n">
-        <v>726.3690956406915</v>
+        <v>648.4473789924706</v>
       </c>
       <c r="M37" t="n">
-        <v>840.7796431371921</v>
+        <v>762.8579264889712</v>
       </c>
       <c r="N37" t="n">
-        <v>1351.77953433597</v>
+        <v>1185.928590531125</v>
       </c>
       <c r="O37" t="n">
-        <v>1830.524261201321</v>
+        <v>1664.673317396476</v>
       </c>
       <c r="P37" t="n">
         <v>2060.791182666785</v>
@@ -7119,28 +7119,28 @@
         <v>2109.473461650528</v>
       </c>
       <c r="R37" t="n">
-        <v>2102.459791754788</v>
+        <v>2109.473461650528</v>
       </c>
       <c r="S37" t="n">
-        <v>1947.837849112288</v>
+        <v>1954.851519008029</v>
       </c>
       <c r="T37" t="n">
-        <v>1708.301922973051</v>
+        <v>1715.315592868792</v>
       </c>
       <c r="U37" t="n">
-        <v>1624.674661187331</v>
+        <v>1435.179698687839</v>
       </c>
       <c r="V37" t="n">
-        <v>1624.674661187331</v>
+        <v>1311.403842631329</v>
       </c>
       <c r="W37" t="n">
-        <v>1349.822257359844</v>
+        <v>1036.551438803842</v>
       </c>
       <c r="X37" t="n">
-        <v>1107.258360805649</v>
+        <v>793.9875422496475</v>
       </c>
       <c r="Y37" t="n">
-        <v>880.9155924953908</v>
+        <v>567.6447739393896</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1573.190168937994</v>
+        <v>828.7501709846103</v>
       </c>
       <c r="C38" t="n">
-        <v>1573.190168937994</v>
+        <v>828.7501709846103</v>
       </c>
       <c r="D38" t="n">
-        <v>1573.190168937994</v>
+        <v>405.4575501696106</v>
       </c>
       <c r="E38" t="n">
-        <v>1147.213229085852</v>
+        <v>319.7344494833398</v>
       </c>
       <c r="F38" t="n">
-        <v>722.0890472752521</v>
+        <v>319.7344494833398</v>
       </c>
       <c r="G38" t="n">
         <v>319.7344494833398</v>
@@ -7171,22 +7171,22 @@
         <v>42.18946923301057</v>
       </c>
       <c r="I38" t="n">
-        <v>82.97064708758353</v>
+        <v>82.97064708758398</v>
       </c>
       <c r="J38" t="n">
-        <v>218.9221049399275</v>
+        <v>218.9221049399277</v>
       </c>
       <c r="K38" t="n">
-        <v>430.9231076957179</v>
+        <v>430.923107695718</v>
       </c>
       <c r="L38" t="n">
-        <v>699.9256343271978</v>
+        <v>699.9256343271979</v>
       </c>
       <c r="M38" t="n">
         <v>1004.389060027289</v>
       </c>
       <c r="N38" t="n">
-        <v>1314.52876612348</v>
+        <v>1314.528766123479</v>
       </c>
       <c r="O38" t="n">
         <v>1605.217916110744</v>
@@ -7201,25 +7201,25 @@
         <v>2109.473461650528</v>
       </c>
       <c r="S38" t="n">
-        <v>2109.473461650528</v>
+        <v>2050.327155020903</v>
       </c>
       <c r="T38" t="n">
-        <v>2109.473461650528</v>
+        <v>2050.327155020903</v>
       </c>
       <c r="U38" t="n">
-        <v>2109.473461650528</v>
+        <v>2050.327155020903</v>
       </c>
       <c r="V38" t="n">
-        <v>2109.473461650528</v>
+        <v>2050.327155020903</v>
       </c>
       <c r="W38" t="n">
-        <v>1713.082111950875</v>
+        <v>1653.93580532125</v>
       </c>
       <c r="X38" t="n">
-        <v>1573.190168937994</v>
+        <v>1653.93580532125</v>
       </c>
       <c r="Y38" t="n">
-        <v>1573.190168937994</v>
+        <v>1248.59853527614</v>
       </c>
     </row>
     <row r="39">
@@ -7268,13 +7268,13 @@
         <v>1003.249554843464</v>
       </c>
       <c r="O39" t="n">
-        <v>1486.828723586478</v>
+        <v>1227.907137056037</v>
       </c>
       <c r="P39" t="n">
-        <v>1663.994616209847</v>
+        <v>1405.073029679406</v>
       </c>
       <c r="Q39" t="n">
-        <v>1774.31345419543</v>
+        <v>1668.857953910524</v>
       </c>
       <c r="R39" t="n">
         <v>1815.489017493114</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>928.9988282115457</v>
+        <v>924.4296536961147</v>
       </c>
       <c r="C40" t="n">
-        <v>757.0262650904617</v>
+        <v>752.4570905750306</v>
       </c>
       <c r="D40" t="n">
-        <v>593.7094922172324</v>
+        <v>589.1403177018013</v>
       </c>
       <c r="E40" t="n">
-        <v>452.4170045133874</v>
+        <v>422.9321118546549</v>
       </c>
       <c r="F40" t="n">
-        <v>280.5552302879478</v>
+        <v>251.0703376292153</v>
       </c>
       <c r="G40" t="n">
-        <v>115.188423092467</v>
+        <v>251.0703376292153</v>
       </c>
       <c r="H40" t="n">
         <v>115.188423092467</v>
@@ -7341,13 +7341,13 @@
         <v>973.6517047547136</v>
       </c>
       <c r="M40" t="n">
-        <v>1495.746386513219</v>
+        <v>1088.062252251214</v>
       </c>
       <c r="N40" t="n">
-        <v>1725.013622029737</v>
+        <v>1201.029220608112</v>
       </c>
       <c r="O40" t="n">
-        <v>1826.056024591884</v>
+        <v>1513.299820018577</v>
       </c>
       <c r="P40" t="n">
         <v>1909.417685288886</v>
@@ -7356,28 +7356,28 @@
         <v>2109.473461650528</v>
       </c>
       <c r="R40" t="n">
-        <v>2102.459791754789</v>
+        <v>2104.749680803842</v>
       </c>
       <c r="S40" t="n">
-        <v>2102.459791754789</v>
+        <v>2104.749680803842</v>
       </c>
       <c r="T40" t="n">
-        <v>1862.923865615551</v>
+        <v>1865.213754664604</v>
       </c>
       <c r="U40" t="n">
-        <v>1862.923865615551</v>
+        <v>1865.213754664604</v>
       </c>
       <c r="V40" t="n">
-        <v>1862.923865615551</v>
+        <v>1583.502287272633</v>
       </c>
       <c r="W40" t="n">
-        <v>1588.071461788064</v>
+        <v>1583.502287272633</v>
       </c>
       <c r="X40" t="n">
-        <v>1345.507565233869</v>
+        <v>1340.938390718438</v>
       </c>
       <c r="Y40" t="n">
-        <v>1119.164796923611</v>
+        <v>1114.59562240818</v>
       </c>
     </row>
     <row r="41">
@@ -7387,43 +7387,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>311.785756866067</v>
+        <v>1998.259337929094</v>
       </c>
       <c r="C41" t="n">
-        <v>311.785756866067</v>
+        <v>1571.358607942394</v>
       </c>
       <c r="D41" t="n">
-        <v>42.18946923301057</v>
+        <v>1148.065987127395</v>
       </c>
       <c r="E41" t="n">
-        <v>42.18946923301057</v>
+        <v>722.0890472752521</v>
       </c>
       <c r="F41" t="n">
-        <v>42.18946923301057</v>
+        <v>722.0890472752521</v>
       </c>
       <c r="G41" t="n">
-        <v>42.18946923301057</v>
+        <v>319.7344494833398</v>
       </c>
       <c r="H41" t="n">
         <v>42.18946923301057</v>
       </c>
       <c r="I41" t="n">
-        <v>82.97064708758398</v>
+        <v>82.97064708758427</v>
       </c>
       <c r="J41" t="n">
-        <v>218.9221049399277</v>
+        <v>218.9221049399282</v>
       </c>
       <c r="K41" t="n">
-        <v>430.923107695718</v>
+        <v>430.9231076957186</v>
       </c>
       <c r="L41" t="n">
-        <v>699.9256343271979</v>
+        <v>699.9256343271986</v>
       </c>
       <c r="M41" t="n">
-        <v>1004.389060027289</v>
+        <v>1004.38906002729</v>
       </c>
       <c r="N41" t="n">
-        <v>1314.528766123479</v>
+        <v>1314.52876612348</v>
       </c>
       <c r="O41" t="n">
         <v>1605.217916110744</v>
@@ -7438,25 +7438,25 @@
         <v>2109.473461650528</v>
       </c>
       <c r="S41" t="n">
-        <v>2109.473461650528</v>
+        <v>2050.327155020903</v>
       </c>
       <c r="T41" t="n">
-        <v>1897.234884563253</v>
+        <v>2050.327155020903</v>
       </c>
       <c r="U41" t="n">
-        <v>1897.234884563253</v>
+        <v>1998.259337929094</v>
       </c>
       <c r="V41" t="n">
-        <v>1539.745469689503</v>
+        <v>1998.259337929094</v>
       </c>
       <c r="W41" t="n">
-        <v>1143.35411998985</v>
+        <v>1998.259337929094</v>
       </c>
       <c r="X41" t="n">
-        <v>731.6341211575971</v>
+        <v>1998.259337929094</v>
       </c>
       <c r="Y41" t="n">
-        <v>731.6341211575971</v>
+        <v>1998.259337929094</v>
       </c>
     </row>
     <row r="42">
@@ -7490,28 +7490,28 @@
         <v>85.46560251410961</v>
       </c>
       <c r="J42" t="n">
-        <v>163.3794593197289</v>
+        <v>316.8455455652644</v>
       </c>
       <c r="K42" t="n">
-        <v>309.2468095548581</v>
+        <v>462.7128958003936</v>
       </c>
       <c r="L42" t="n">
-        <v>512.9108760327852</v>
+        <v>666.3769622783205</v>
       </c>
       <c r="M42" t="n">
-        <v>753.7227264771019</v>
+        <v>907.1888127226373</v>
       </c>
       <c r="N42" t="n">
-        <v>1262.171141373905</v>
+        <v>1156.715641088999</v>
       </c>
       <c r="O42" t="n">
-        <v>1486.828723586478</v>
+        <v>1381.373223301572</v>
       </c>
       <c r="P42" t="n">
-        <v>1663.994616209847</v>
+        <v>1558.539115924941</v>
       </c>
       <c r="Q42" t="n">
-        <v>1774.31345419543</v>
+        <v>1668.857953910524</v>
       </c>
       <c r="R42" t="n">
         <v>1815.489017493114</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.4796880183662</v>
+        <v>487.3819278236091</v>
       </c>
       <c r="C43" t="n">
-        <v>754.5071248972822</v>
+        <v>315.4093647025252</v>
       </c>
       <c r="D43" t="n">
-        <v>754.5071248972822</v>
+        <v>315.4093647025252</v>
       </c>
       <c r="E43" t="n">
-        <v>588.2989190501357</v>
+        <v>315.4093647025252</v>
       </c>
       <c r="F43" t="n">
-        <v>416.4371448246962</v>
+        <v>315.4093647025252</v>
       </c>
       <c r="G43" t="n">
-        <v>251.0703376292153</v>
+        <v>150.0425575070443</v>
       </c>
       <c r="H43" t="n">
         <v>115.188423092467</v>
@@ -7569,25 +7569,25 @@
         <v>42.18946923301057</v>
       </c>
       <c r="J43" t="n">
-        <v>161.3628905938623</v>
+        <v>146.2622605168753</v>
       </c>
       <c r="K43" t="n">
-        <v>241.9705096995575</v>
+        <v>474.1524887365925</v>
       </c>
       <c r="L43" t="n">
-        <v>726.3690956406915</v>
+        <v>958.5510746777265</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.463777399197</v>
+        <v>1072.961622174227</v>
       </c>
       <c r="N43" t="n">
-        <v>1361.430745756095</v>
+        <v>1185.928590531125</v>
       </c>
       <c r="O43" t="n">
-        <v>1513.299820018577</v>
+        <v>1664.673317396476</v>
       </c>
       <c r="P43" t="n">
-        <v>1909.417685288886</v>
+        <v>2060.791182666785</v>
       </c>
       <c r="Q43" t="n">
         <v>2109.473461650528</v>
@@ -7599,22 +7599,22 @@
         <v>1947.837849112289</v>
       </c>
       <c r="T43" t="n">
-        <v>1947.837849112289</v>
+        <v>1708.301922973052</v>
       </c>
       <c r="U43" t="n">
-        <v>1667.701954931336</v>
+        <v>1428.166028792099</v>
       </c>
       <c r="V43" t="n">
-        <v>1385.990487539365</v>
+        <v>1146.454561400128</v>
       </c>
       <c r="W43" t="n">
-        <v>1385.990487539365</v>
+        <v>1146.454561400128</v>
       </c>
       <c r="X43" t="n">
-        <v>1152.822456328624</v>
+        <v>903.8906648459327</v>
       </c>
       <c r="Y43" t="n">
-        <v>926.4796880183662</v>
+        <v>677.5478965356748</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1316.583211710752</v>
+        <v>1579.892425699532</v>
       </c>
       <c r="C44" t="n">
-        <v>1316.583211710752</v>
+        <v>1579.892425699532</v>
       </c>
       <c r="D44" t="n">
-        <v>893.2905908957528</v>
+        <v>1573.190168937994</v>
       </c>
       <c r="E44" t="n">
-        <v>467.3136510436104</v>
+        <v>1147.213229085852</v>
       </c>
       <c r="F44" t="n">
-        <v>42.18946923301057</v>
+        <v>722.0890472752521</v>
       </c>
       <c r="G44" t="n">
-        <v>42.18946923301057</v>
+        <v>319.7344494833398</v>
       </c>
       <c r="H44" t="n">
         <v>42.18946923301057</v>
@@ -7675,25 +7675,25 @@
         <v>2109.473461650528</v>
       </c>
       <c r="S44" t="n">
-        <v>2109.473461650528</v>
+        <v>2050.327155020903</v>
       </c>
       <c r="T44" t="n">
-        <v>2109.473461650528</v>
+        <v>1838.088577933628</v>
       </c>
       <c r="U44" t="n">
-        <v>1851.277309416432</v>
+        <v>1579.892425699532</v>
       </c>
       <c r="V44" t="n">
-        <v>1493.787894542681</v>
+        <v>1579.892425699532</v>
       </c>
       <c r="W44" t="n">
-        <v>1493.787894542681</v>
+        <v>1579.892425699532</v>
       </c>
       <c r="X44" t="n">
-        <v>1316.583211710752</v>
+        <v>1579.892425699532</v>
       </c>
       <c r="Y44" t="n">
-        <v>1316.583211710752</v>
+        <v>1579.892425699532</v>
       </c>
     </row>
     <row r="45">
@@ -7724,31 +7724,31 @@
         <v>42.18946923301057</v>
       </c>
       <c r="I45" t="n">
-        <v>62.00829666969776</v>
+        <v>85.46560251410961</v>
       </c>
       <c r="J45" t="n">
-        <v>422.3010458501702</v>
+        <v>316.8455455652644</v>
       </c>
       <c r="K45" t="n">
-        <v>568.1683960852995</v>
+        <v>462.7128958003936</v>
       </c>
       <c r="L45" t="n">
-        <v>771.8324625632264</v>
+        <v>666.3769622783205</v>
       </c>
       <c r="M45" t="n">
-        <v>1012.644313007543</v>
+        <v>907.1888127226373</v>
       </c>
       <c r="N45" t="n">
-        <v>1262.171141373905</v>
+        <v>1156.715641088999</v>
       </c>
       <c r="O45" t="n">
-        <v>1486.828723586478</v>
+        <v>1381.373223301572</v>
       </c>
       <c r="P45" t="n">
-        <v>1663.994616209847</v>
+        <v>1558.539115924941</v>
       </c>
       <c r="Q45" t="n">
-        <v>1774.31345419543</v>
+        <v>1668.857953910524</v>
       </c>
       <c r="R45" t="n">
         <v>1815.489017493114</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>652.2730591581226</v>
+        <v>438.8722923063801</v>
       </c>
       <c r="C46" t="n">
-        <v>480.3004960370386</v>
+        <v>416.4371448246962</v>
       </c>
       <c r="D46" t="n">
-        <v>316.9837231638093</v>
+        <v>416.4371448246962</v>
       </c>
       <c r="E46" t="n">
-        <v>207.5562764284915</v>
+        <v>416.4371448246962</v>
       </c>
       <c r="F46" t="n">
-        <v>207.5562764284915</v>
+        <v>416.4371448246962</v>
       </c>
       <c r="G46" t="n">
-        <v>42.18946923301057</v>
+        <v>251.0703376292153</v>
       </c>
       <c r="H46" t="n">
-        <v>42.18946923301057</v>
+        <v>115.188423092467</v>
       </c>
       <c r="I46" t="n">
         <v>42.18946923301057</v>
       </c>
       <c r="J46" t="n">
-        <v>156.8946539844259</v>
+        <v>161.3628905938623</v>
       </c>
       <c r="K46" t="n">
-        <v>237.5022730901211</v>
+        <v>241.9705096995575</v>
       </c>
       <c r="L46" t="n">
-        <v>721.9008590312551</v>
+        <v>726.3690956406915</v>
       </c>
       <c r="M46" t="n">
-        <v>836.3114065277557</v>
+        <v>1248.463777399197</v>
       </c>
       <c r="N46" t="n">
-        <v>1347.311297726534</v>
+        <v>1759.463668597975</v>
       </c>
       <c r="O46" t="n">
-        <v>1826.056024591884</v>
+        <v>1977.429521969783</v>
       </c>
       <c r="P46" t="n">
-        <v>1909.417685288886</v>
+        <v>2060.791182666785</v>
       </c>
       <c r="Q46" t="n">
         <v>2109.473461650528</v>
       </c>
       <c r="R46" t="n">
-        <v>2109.473461650528</v>
+        <v>2102.459791754789</v>
       </c>
       <c r="S46" t="n">
-        <v>1954.851519008029</v>
+        <v>1947.837849112289</v>
       </c>
       <c r="T46" t="n">
-        <v>1715.315592868792</v>
+        <v>1708.301922973052</v>
       </c>
       <c r="U46" t="n">
-        <v>1435.179698687839</v>
+        <v>1428.166028792099</v>
       </c>
       <c r="V46" t="n">
-        <v>1153.468231295868</v>
+        <v>1146.454561400128</v>
       </c>
       <c r="W46" t="n">
-        <v>878.6158274683805</v>
+        <v>871.6021575726406</v>
       </c>
       <c r="X46" t="n">
-        <v>878.6158274683805</v>
+        <v>629.0382610184457</v>
       </c>
       <c r="Y46" t="n">
-        <v>652.2730591581226</v>
+        <v>629.0382610184457</v>
       </c>
     </row>
   </sheetData>
@@ -8765,10 +8765,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>23.69424832768873</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>261.536956091355</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8780,10 +8780,10 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>275.3210640324684</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>9.910140386574767</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -8847,10 +8847,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K13" t="n">
-        <v>108.1862213109493</v>
+        <v>50.01337473565223</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -8859,10 +8859,10 @@
         <v>411.8021558202073</v>
       </c>
       <c r="N13" t="n">
-        <v>402.0534574160406</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P13" t="n">
         <v>315.9153581548562</v>
@@ -9005,13 +9005,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>285.2312044190433</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>285.2312044190438</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9087,19 +9087,19 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L16" t="n">
-        <v>380.1908016072373</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>411.8021558202071</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>130.0488771197521</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>270.2079638846697</v>
       </c>
       <c r="P16" t="n">
         <v>315.9153581548562</v>
@@ -9251,13 +9251,13 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>284.1240720345344</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>178.7104970605528</v>
+        <v>1.107132384509214</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>106.5207073584907</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9321,28 +9321,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K19" t="n">
-        <v>196.8133004625063</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L19" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M19" t="n">
-        <v>411.8021558202072</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>402.0534574160406</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>213.3618149983004</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9476,7 +9476,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -9488,7 +9488,7 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>155.0162487328637</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -9500,10 +9500,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>285.2312044190434</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9564,19 +9564,19 @@
         <v>249.7804132464869</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M22" t="n">
         <v>411.8021558202072</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>117.475017332949</v>
       </c>
       <c r="O22" t="n">
-        <v>181.7504607853304</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>152.9025226039384</v>
@@ -9713,10 +9713,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>155.016248732864</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9737,7 +9737,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>178.7104970605526</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>106.5207073584907</v>
@@ -9795,7 +9795,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K25" t="n">
         <v>249.7804132464869</v>
@@ -9804,19 +9804,19 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M25" t="n">
-        <v>42.9196848813707</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>402.0534574160406</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>213.3618149982999</v>
       </c>
       <c r="P25" t="n">
         <v>315.9153581548562</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9950,10 +9950,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>155.0162487328642</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9974,10 +9974,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>285.2312044190436</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10035,25 +10035,25 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M28" t="n">
-        <v>411.8021558202071</v>
+        <v>411.8021558202072</v>
       </c>
       <c r="N28" t="n">
-        <v>402.0534574160406</v>
+        <v>117.475017332949</v>
       </c>
       <c r="O28" t="n">
-        <v>381.5174992961649</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>116.777798078406</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10190,7 +10190,7 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>155.0162487328642</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10199,7 +10199,7 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>261.5369560913548</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -10214,7 +10214,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10269,25 +10269,25 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>95.61236152414594</v>
       </c>
       <c r="M31" t="n">
-        <v>411.8021558202072</v>
+        <v>411.8021558202073</v>
       </c>
       <c r="N31" t="n">
         <v>402.0534574160406</v>
       </c>
       <c r="O31" t="n">
-        <v>381.5174992961649</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>42.58408016964066</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
         <v>152.9025226039384</v>
@@ -10427,10 +10427,10 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>155.0162487328642</v>
       </c>
       <c r="K33" t="n">
-        <v>155.0162487328641</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10509,25 +10509,25 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>160.3335336437951</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>411.8021558202071</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O34" t="n">
-        <v>381.5174992961649</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>315.9153581548562</v>
+        <v>196.8133004625061</v>
       </c>
       <c r="Q34" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10661,19 +10661,19 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>23.69424832768873</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>155.0162487328642</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>1.107132384509214</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>284.1240720345344</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -10688,7 +10688,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>106.5207073584907</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10743,7 +10743,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -10755,13 +10755,13 @@
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>402.0534574160406</v>
+        <v>313.2360562477332</v>
       </c>
       <c r="O37" t="n">
         <v>381.5174992961649</v>
       </c>
       <c r="P37" t="n">
-        <v>148.3891522913758</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -10916,16 +10916,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>261.5369560913547</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>155.0162487328639</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10989,16 +10989,16 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M40" t="n">
-        <v>411.8021558202072</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>117.475017332949</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>213.3618149983004</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q40" t="n">
         <v>152.9025226039384</v>
@@ -11138,7 +11138,7 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>155.0162487328642</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11150,7 +11150,7 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>261.5369560913548</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -11162,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11217,28 +11217,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>78.70880469517259</v>
+        <v>63.45564300124634</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L43" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M43" t="n">
-        <v>411.8021558202072</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>51.34007242458021</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P43" t="n">
         <v>315.9153581548562</v>
       </c>
       <c r="Q43" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11372,10 +11372,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
-        <v>285.2312044190436</v>
+        <v>155.0162487328642</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11399,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11454,7 +11454,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>74.19543438261059</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -11463,19 +11463,19 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>411.8021558202072</v>
       </c>
       <c r="N46" t="n">
         <v>402.0534574160406</v>
       </c>
       <c r="O46" t="n">
-        <v>381.5174992961649</v>
+        <v>118.1044957673342</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23257,13 +23257,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486147</v>
+        <v>189.9855706205962</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
         <v>421.717170453621</v>
@@ -23272,7 +23272,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>398.3310518139933</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>274.7695304478259</v>
@@ -23317,16 +23317,16 @@
         <v>255.6141907117556</v>
       </c>
       <c r="V11" t="n">
-        <v>226.5525165936727</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="12">
@@ -23415,25 +23415,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>69.58738903885022</v>
+        <v>163.713139123526</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>134.5230953913808</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>6.943533196782496</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>224.0793406271554</v>
+        <v>213.3665856453873</v>
       </c>
     </row>
     <row r="14">
@@ -23497,13 +23497,13 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
         <v>420.8729399924937</v>
@@ -23512,7 +23512,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>127.736410965345</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,19 +23545,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>58.55484356332865</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>210.1161913164022</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>298.4005096322913</v>
       </c>
       <c r="X14" t="n">
         <v>407.6027988439302</v>
@@ -23658,19 +23658,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.713139123526</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>134.5230953913808</v>
       </c>
       <c r="I16" t="n">
         <v>72.26896432086183</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>6.943533196782496</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>153.0757232160747</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>18.68361654150323</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3345352391432</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>86.76763176444462</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23737,13 +23737,13 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>384.8935088563028</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
-        <v>420.8729399924937</v>
+        <v>328.1519106786176</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>58.55484356332865</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23889,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>98.52978666029867</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>134.5230953913808</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>72.26896432086183</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23949,13 +23949,13 @@
         <v>277.3345352391432</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>99.74518952977041</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23971,16 +23971,16 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>284.5796100507646</v>
       </c>
       <c r="D20" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
         <v>398.3310518139933</v>
@@ -24019,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>58.55484356332865</v>
+        <v>58.55484356332864</v>
       </c>
       <c r="T20" t="n">
-        <v>210.1161913164022</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>136.1639275341543</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="21">
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>117.6926473557057</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>139.7234803697546</v>
       </c>
       <c r="G22" t="n">
-        <v>163.713139123526</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>72.26896432086181</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>6.943533196782489</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>153.0757232160747</v>
       </c>
       <c r="T22" t="n">
-        <v>237.1405668778449</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24205,16 +24205,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>415.6498806486147</v>
+        <v>158.5457868797069</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E23" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -24259,10 +24259,10 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>210.1161913164022</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>255.6141907117556</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>353.914520725013</v>
@@ -24271,10 +24271,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X23" t="n">
-        <v>83.39474454475152</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="24">
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>93.41669439209961</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>11.74008334472128</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>163.713139123526</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>134.5230953913808</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>72.26896432086183</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>6.943533196782496</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>153.0757232160747</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24423,16 +24423,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24442,22 +24442,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C26" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>105.7996122170302</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>398.3310518139933</v>
       </c>
       <c r="H26" t="n">
         <v>274.7695304478259</v>
@@ -24496,22 +24496,22 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>210.1161913164022</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>255.6141907117556</v>
       </c>
       <c r="V26" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X26" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y26" t="n">
-        <v>401.2838973446586</v>
+        <v>97.5091161544421</v>
       </c>
     </row>
     <row r="27">
@@ -24603,10 +24603,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>170.2528374898731</v>
+        <v>41.78817864492865</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>72.26896432086183</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24660,16 +24660,16 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
-        <v>140.5564650349038</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="29">
@@ -24679,10 +24679,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>291.6156177722038</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -24694,7 +24694,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>398.3310518139933</v>
       </c>
       <c r="H29" t="n">
         <v>274.7695304478259</v>
@@ -24730,10 +24730,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>58.55484356332865</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>210.1161913164022</v>
+        <v>154.9737587997233</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -24849,16 +24849,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>134.5230953913808</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>36.68373079585495</v>
+        <v>72.26896432086183</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>6.943533196782496</v>
+        <v>3.92067175712964</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24900,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -24916,16 +24916,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>415.6498806486147</v>
+        <v>97.76072784870803</v>
       </c>
       <c r="C32" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -24970,19 +24970,19 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>210.1161913164022</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>255.6141907117556</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W32" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X32" t="n">
-        <v>81.78150311320212</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>401.2838973446586</v>
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>161.683605144497</v>
@@ -25092,10 +25092,10 @@
         <v>163.713139123526</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>134.5230953913808</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>72.26896432086183</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>6.943533196782496</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>208.2985619799473</v>
+        <v>164.8158065607957</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25165,13 +25165,13 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>398.3310518139933</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>274.7695304478259</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25207,19 +25207,19 @@
         <v>58.55484356332865</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>210.1161913164022</v>
       </c>
       <c r="U35" t="n">
         <v>255.6141907117556</v>
       </c>
       <c r="V35" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>79.0816693779434</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>368.9834083312217</v>
       </c>
       <c r="Y35" t="n">
         <v>401.2838973446586</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25320,13 +25320,13 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.713139123526</v>
       </c>
       <c r="H37" t="n">
         <v>134.5230953913808</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>6.943533196782496</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25368,10 +25368,10 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>194.5435460712799</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>278.8943527180514</v>
+        <v>156.3562552221071</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25390,22 +25390,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D38" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>336.8513007742129</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>398.3310518139933</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>58.55484356332865</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>210.1161913164022</v>
@@ -25456,10 +25456,10 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>269.109775261178</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y38" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25557,16 +25557,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>24.66656096186838</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.713139123526</v>
       </c>
       <c r="H40" t="n">
-        <v>134.5230953913808</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>2.266990158562741</v>
       </c>
       <c r="S40" t="n">
         <v>153.0757232160747</v>
@@ -25608,10 +25608,10 @@
         <v>277.3345352391432</v>
       </c>
       <c r="V40" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25627,25 +25627,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>152.1593698501238</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>398.3310518139933</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>274.7695304478259</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25678,22 +25678,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>58.55484356332865</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>210.1161913164022</v>
       </c>
       <c r="U41" t="n">
-        <v>255.6141907117556</v>
+        <v>204.0670517908647</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
         <v>401.2838973446586</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25794,16 +25794,16 @@
         <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>100.0175023209493</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25839,7 +25839,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>237.1405668778449</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
-        <v>9.301906690019564</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25870,7 +25870,7 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>412.4244604129276</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25879,10 +25879,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>398.3310518139933</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>274.7695304478259</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25915,22 +25915,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>58.55484356332865</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>210.1161913164022</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>232.1701628403208</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
         <v>401.2838973446586</v>
@@ -26022,16 +26022,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>148.0420414830061</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>56.21295152071036</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
         <v>170.1431564831852</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>134.5230953913808</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>72.26896432086183</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>6.943533196782496</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>347481.8828566557</v>
+        <v>347481.8828566559</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>347481.8828566559</v>
+        <v>347481.8828566558</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>347481.8828566557</v>
+        <v>347481.8828566558</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>347481.8828566559</v>
+        <v>347481.8828566557</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>347481.8828566559</v>
+        <v>347481.8828566558</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>347481.8828566558</v>
+        <v>347481.8828566557</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>347481.8828566559</v>
+        <v>347481.8828566558</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>347481.8828566558</v>
+        <v>347481.8828566559</v>
       </c>
     </row>
   </sheetData>
@@ -26313,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>459016.6182600351</v>
+        <v>459016.6182600352</v>
       </c>
       <c r="C2" t="n">
         <v>459017.3604144077</v>
       </c>
       <c r="D2" t="n">
-        <v>459018.1106995048</v>
+        <v>459018.1106995047</v>
       </c>
       <c r="E2" t="n">
-        <v>270597.1217024816</v>
+        <v>270597.1217024815</v>
       </c>
       <c r="F2" t="n">
         <v>270597.1217024815</v>
@@ -26331,13 +26331,13 @@
         <v>270597.1217024815</v>
       </c>
       <c r="H2" t="n">
-        <v>270597.1217024815</v>
+        <v>270597.1217024813</v>
       </c>
       <c r="I2" t="n">
         <v>270597.1217024815</v>
       </c>
       <c r="J2" t="n">
-        <v>270597.1217024813</v>
+        <v>270597.1217024815</v>
       </c>
       <c r="K2" t="n">
         <v>270597.1217024814</v>
@@ -26349,7 +26349,7 @@
         <v>270597.1217024815</v>
       </c>
       <c r="N2" t="n">
-        <v>270597.1217024815</v>
+        <v>270597.1217024814</v>
       </c>
       <c r="O2" t="n">
         <v>270597.1217024815</v>
@@ -26426,31 +26426,31 @@
         <v>310927.8361259664</v>
       </c>
       <c r="E4" t="n">
-        <v>26586.22283868728</v>
+        <v>26586.22283868727</v>
       </c>
       <c r="F4" t="n">
         <v>26586.22283868727</v>
       </c>
       <c r="G4" t="n">
-        <v>26586.22283868727</v>
+        <v>26586.22283868728</v>
       </c>
       <c r="H4" t="n">
-        <v>26586.22283868727</v>
+        <v>26586.22283868726</v>
       </c>
       <c r="I4" t="n">
         <v>26586.22283868727</v>
       </c>
       <c r="J4" t="n">
+        <v>26586.22283868728</v>
+      </c>
+      <c r="K4" t="n">
+        <v>26586.22283868728</v>
+      </c>
+      <c r="L4" t="n">
         <v>26586.22283868727</v>
       </c>
-      <c r="K4" t="n">
-        <v>26586.22283868727</v>
-      </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
         <v>26586.22283868728</v>
-      </c>
-      <c r="M4" t="n">
-        <v>26586.22283868727</v>
       </c>
       <c r="N4" t="n">
         <v>26586.22283868727</v>
@@ -26481,13 +26481,13 @@
         <v>42717.63957270506</v>
       </c>
       <c r="F5" t="n">
-        <v>42717.63957270505</v>
+        <v>42717.63957270506</v>
       </c>
       <c r="G5" t="n">
         <v>42717.63957270505</v>
       </c>
       <c r="H5" t="n">
-        <v>42717.63957270505</v>
+        <v>42717.63957270506</v>
       </c>
       <c r="I5" t="n">
         <v>42717.63957270505</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>70860.09287490396</v>
+        <v>70838.41313693878</v>
       </c>
       <c r="C6" t="n">
-        <v>109928.0882159884</v>
+        <v>109906.4107972555</v>
       </c>
       <c r="D6" t="n">
-        <v>110901.7336592782</v>
+        <v>110880.0585851862</v>
       </c>
       <c r="E6" t="n">
-        <v>-310058.2900075523</v>
+        <v>-310668.78067226</v>
       </c>
       <c r="F6" t="n">
-        <v>201293.2592910891</v>
+        <v>200682.7686263815</v>
       </c>
       <c r="G6" t="n">
-        <v>201293.2592910891</v>
+        <v>200682.7686263815</v>
       </c>
       <c r="H6" t="n">
-        <v>201293.2592910892</v>
+        <v>200682.7686263813</v>
       </c>
       <c r="I6" t="n">
-        <v>201293.2592910892</v>
+        <v>200682.7686263815</v>
       </c>
       <c r="J6" t="n">
-        <v>201293.259291089</v>
+        <v>200682.7686263815</v>
       </c>
       <c r="K6" t="n">
-        <v>201293.2592910891</v>
+        <v>200682.7686263814</v>
       </c>
       <c r="L6" t="n">
-        <v>201293.259291089</v>
+        <v>200682.7686263814</v>
       </c>
       <c r="M6" t="n">
-        <v>69870.95315679957</v>
+        <v>69260.46249209197</v>
       </c>
       <c r="N6" t="n">
-        <v>201293.2592910892</v>
+        <v>200682.7686263814</v>
       </c>
       <c r="O6" t="n">
-        <v>201293.2592910892</v>
+        <v>200682.7686263815</v>
       </c>
       <c r="P6" t="n">
-        <v>201293.2592910891</v>
+        <v>200682.7686263814</v>
       </c>
     </row>
   </sheetData>
@@ -26755,10 +26755,10 @@
         <v>488.6992181475701</v>
       </c>
       <c r="H3" t="n">
-        <v>488.6992181475701</v>
+        <v>488.6992181475703</v>
       </c>
       <c r="I3" t="n">
-        <v>488.6992181475701</v>
+        <v>488.6992181475702</v>
       </c>
       <c r="J3" t="n">
         <v>488.6992181475701</v>
@@ -26801,28 +26801,28 @@
         <v>527.3683654126321</v>
       </c>
       <c r="F4" t="n">
-        <v>527.368365412632</v>
+        <v>527.3683654126321</v>
       </c>
       <c r="G4" t="n">
-        <v>527.368365412632</v>
+        <v>527.3683654126321</v>
       </c>
       <c r="H4" t="n">
         <v>527.3683654126321</v>
       </c>
       <c r="I4" t="n">
+        <v>527.368365412632</v>
+      </c>
+      <c r="J4" t="n">
         <v>527.3683654126321</v>
-      </c>
-      <c r="J4" t="n">
-        <v>527.368365412632</v>
       </c>
       <c r="K4" t="n">
         <v>527.3683654126321</v>
       </c>
       <c r="L4" t="n">
+        <v>527.368365412632</v>
+      </c>
+      <c r="M4" t="n">
         <v>527.3683654126321</v>
-      </c>
-      <c r="M4" t="n">
-        <v>527.368365412632</v>
       </c>
       <c r="N4" t="n">
         <v>527.3683654126321</v>
@@ -32469,28 +32469,28 @@
         <v>20.1201642928796</v>
       </c>
       <c r="I20" t="n">
-        <v>75.74101148797669</v>
+        <v>75.74101148797671</v>
       </c>
       <c r="J20" t="n">
         <v>166.7446643869441</v>
       </c>
       <c r="K20" t="n">
-        <v>249.9070278208602</v>
+        <v>249.9070278208603</v>
       </c>
       <c r="L20" t="n">
         <v>310.0317663028048</v>
       </c>
       <c r="M20" t="n">
-        <v>344.9700767379076</v>
+        <v>344.9700767379077</v>
       </c>
       <c r="N20" t="n">
-        <v>350.5520532346384</v>
+        <v>350.5520532346385</v>
       </c>
       <c r="O20" t="n">
         <v>331.0163633835635</v>
       </c>
       <c r="P20" t="n">
-        <v>282.5148078136413</v>
+        <v>282.5148078136414</v>
       </c>
       <c r="Q20" t="n">
         <v>212.1568550501846</v>
@@ -32499,10 +32499,10 @@
         <v>123.4100593445721</v>
       </c>
       <c r="S20" t="n">
-        <v>44.76877762226234</v>
+        <v>44.76877762226236</v>
       </c>
       <c r="T20" t="n">
-        <v>8.600123929411007</v>
+        <v>8.600123929411009</v>
       </c>
       <c r="U20" t="n">
         <v>0.1571695977962033</v>
@@ -32542,31 +32542,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.051164356015528</v>
+        <v>1.051164356015529</v>
       </c>
       <c r="H21" t="n">
-        <v>10.15203470151839</v>
+        <v>10.1520347015184</v>
       </c>
       <c r="I21" t="n">
-        <v>36.19140436281534</v>
+        <v>36.19140436281535</v>
       </c>
       <c r="J21" t="n">
-        <v>99.31197979355481</v>
+        <v>99.31197979355484</v>
       </c>
       <c r="K21" t="n">
-        <v>169.7399916465952</v>
+        <v>169.7399916465953</v>
       </c>
       <c r="L21" t="n">
         <v>228.2363659848629</v>
       </c>
       <c r="M21" t="n">
-        <v>266.3410738904257</v>
+        <v>266.3410738904258</v>
       </c>
       <c r="N21" t="n">
-        <v>273.3903295937053</v>
+        <v>273.3903295937054</v>
       </c>
       <c r="O21" t="n">
-        <v>250.0987404419928</v>
+        <v>250.0987404419929</v>
       </c>
       <c r="P21" t="n">
         <v>200.7262882991407</v>
@@ -32575,16 +32575,16 @@
         <v>134.1802079713857</v>
       </c>
       <c r="R21" t="n">
-        <v>65.26439747261327</v>
+        <v>65.26439747261328</v>
       </c>
       <c r="S21" t="n">
-        <v>19.52491687599017</v>
+        <v>19.52491687599018</v>
       </c>
       <c r="T21" t="n">
-        <v>4.236930013939781</v>
+        <v>4.236930013939782</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06915554973786373</v>
+        <v>0.06915554973786375</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,16 +32621,16 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8812608851841428</v>
+        <v>0.881260885184143</v>
       </c>
       <c r="H22" t="n">
-        <v>7.835210415546293</v>
+        <v>7.835210415546295</v>
       </c>
       <c r="I22" t="n">
         <v>26.50191825626496</v>
       </c>
       <c r="J22" t="n">
-        <v>62.30514458251889</v>
+        <v>62.30514458251891</v>
       </c>
       <c r="K22" t="n">
         <v>102.3864919332122</v>
@@ -32645,13 +32645,13 @@
         <v>134.8569498209517</v>
       </c>
       <c r="O22" t="n">
-        <v>124.5622203894823</v>
+        <v>124.5622203894824</v>
       </c>
       <c r="P22" t="n">
-        <v>106.5844983317257</v>
+        <v>106.5844983317258</v>
       </c>
       <c r="Q22" t="n">
-        <v>73.79358194028309</v>
+        <v>73.7935819402831</v>
       </c>
       <c r="R22" t="n">
         <v>39.62469398291609</v>
@@ -32660,10 +32660,10 @@
         <v>15.35797378998183</v>
       </c>
       <c r="T22" t="n">
-        <v>3.765387418514064</v>
+        <v>3.765387418514065</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04806877555549875</v>
+        <v>0.04806877555549877</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32706,7 +32706,7 @@
         <v>20.1201642928796</v>
       </c>
       <c r="I23" t="n">
-        <v>75.74101148797669</v>
+        <v>75.74101148797671</v>
       </c>
       <c r="J23" t="n">
         <v>166.7446643869441</v>
@@ -32718,10 +32718,10 @@
         <v>310.0317663028048</v>
       </c>
       <c r="M23" t="n">
-        <v>344.9700767379076</v>
+        <v>344.9700767379077</v>
       </c>
       <c r="N23" t="n">
-        <v>350.5520532346384</v>
+        <v>350.5520532346385</v>
       </c>
       <c r="O23" t="n">
         <v>331.0163633835635</v>
@@ -32736,7 +32736,7 @@
         <v>123.4100593445721</v>
       </c>
       <c r="S23" t="n">
-        <v>44.76877762226234</v>
+        <v>44.76877762226235</v>
       </c>
       <c r="T23" t="n">
         <v>8.600123929411007</v>
@@ -32785,10 +32785,10 @@
         <v>10.15203470151839</v>
       </c>
       <c r="I24" t="n">
-        <v>36.19140436281534</v>
+        <v>36.19140436281535</v>
       </c>
       <c r="J24" t="n">
-        <v>99.31197979355481</v>
+        <v>99.31197979355483</v>
       </c>
       <c r="K24" t="n">
         <v>169.7399916465952</v>
@@ -32800,7 +32800,7 @@
         <v>266.3410738904257</v>
       </c>
       <c r="N24" t="n">
-        <v>273.3903295937053</v>
+        <v>273.3903295937054</v>
       </c>
       <c r="O24" t="n">
         <v>250.0987404419928</v>
@@ -32815,13 +32815,13 @@
         <v>65.26439747261327</v>
       </c>
       <c r="S24" t="n">
-        <v>19.52491687599017</v>
+        <v>19.52491687599018</v>
       </c>
       <c r="T24" t="n">
-        <v>4.236930013939781</v>
+        <v>4.236930013939782</v>
       </c>
       <c r="U24" t="n">
-        <v>0.06915554973786373</v>
+        <v>0.06915554973786374</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,16 +32858,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8812608851841428</v>
+        <v>0.8812608851841429</v>
       </c>
       <c r="H25" t="n">
-        <v>7.835210415546293</v>
+        <v>7.835210415546294</v>
       </c>
       <c r="I25" t="n">
         <v>26.50191825626496</v>
       </c>
       <c r="J25" t="n">
-        <v>62.30514458251889</v>
+        <v>62.3051445825189</v>
       </c>
       <c r="K25" t="n">
         <v>102.3864919332122</v>
@@ -32885,10 +32885,10 @@
         <v>124.5622203894823</v>
       </c>
       <c r="P25" t="n">
-        <v>106.5844983317257</v>
+        <v>106.5844983317258</v>
       </c>
       <c r="Q25" t="n">
-        <v>73.79358194028309</v>
+        <v>73.7935819402831</v>
       </c>
       <c r="R25" t="n">
         <v>39.62469398291609</v>
@@ -32900,7 +32900,7 @@
         <v>3.765387418514064</v>
       </c>
       <c r="U25" t="n">
-        <v>0.04806877555549875</v>
+        <v>0.04806877555549876</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -34128,7 +34128,7 @@
         <v>20.1201642928796</v>
       </c>
       <c r="I41" t="n">
-        <v>75.74101148797669</v>
+        <v>75.74101148797735</v>
       </c>
       <c r="J41" t="n">
         <v>166.7446643869441</v>
@@ -35485,10 +35485,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>43.71326594050407</v>
+        <v>20.01901761281535</v>
       </c>
       <c r="J12" t="n">
-        <v>340.2378215515765</v>
+        <v>78.70086546022149</v>
       </c>
       <c r="K12" t="n">
         <v>147.3407578132619</v>
@@ -35500,10 +35500,10 @@
         <v>243.2442933780978</v>
       </c>
       <c r="N12" t="n">
-        <v>252.0473013801637</v>
+        <v>527.3683654126321</v>
       </c>
       <c r="O12" t="n">
-        <v>226.9268507197706</v>
+        <v>236.8369911063454</v>
       </c>
       <c r="P12" t="n">
         <v>178.955447094312</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.66838859861703</v>
+        <v>120.3771932937896</v>
       </c>
       <c r="K13" t="n">
-        <v>189.6080587914495</v>
+        <v>131.4352122161525</v>
       </c>
       <c r="L13" t="n">
         <v>109.1006993434031</v>
@@ -35579,10 +35579,10 @@
         <v>527.3683654126321</v>
       </c>
       <c r="N13" t="n">
-        <v>516.1615062613919</v>
+        <v>114.1080488453513</v>
       </c>
       <c r="O13" t="n">
-        <v>102.0630328910579</v>
+        <v>483.5805321872228</v>
       </c>
       <c r="P13" t="n">
         <v>400.1190558285954</v>
@@ -35725,13 +35725,13 @@
         <v>20.01901761281535</v>
       </c>
       <c r="J15" t="n">
-        <v>78.70086546022149</v>
+        <v>363.9320698792648</v>
       </c>
       <c r="K15" t="n">
         <v>147.3407578132619</v>
       </c>
       <c r="L15" t="n">
-        <v>490.9524836896771</v>
+        <v>205.7212792706333</v>
       </c>
       <c r="M15" t="n">
         <v>243.2442933780978</v>
@@ -35807,19 +35807,19 @@
         <v>41.66838859861703</v>
       </c>
       <c r="K16" t="n">
-        <v>81.42183748050022</v>
+        <v>331.2022507269871</v>
       </c>
       <c r="L16" t="n">
-        <v>489.2915009506405</v>
+        <v>109.1006993434031</v>
       </c>
       <c r="M16" t="n">
-        <v>527.368365412632</v>
+        <v>115.5662095924249</v>
       </c>
       <c r="N16" t="n">
-        <v>244.1569259651035</v>
+        <v>516.1615062613919</v>
       </c>
       <c r="O16" t="n">
-        <v>102.0630328910579</v>
+        <v>372.2709967757276</v>
       </c>
       <c r="P16" t="n">
         <v>400.1190558285954</v>
@@ -35971,13 +35971,13 @@
         <v>205.7212792706333</v>
       </c>
       <c r="M18" t="n">
-        <v>243.2442933780978</v>
+        <v>527.3683654126321</v>
       </c>
       <c r="N18" t="n">
         <v>252.0473013801636</v>
       </c>
       <c r="O18" t="n">
-        <v>405.6373477803234</v>
+        <v>228.0339831042798</v>
       </c>
       <c r="P18" t="n">
         <v>178.955447094312</v>
@@ -35986,7 +35986,7 @@
         <v>111.4331696824072</v>
       </c>
       <c r="R18" t="n">
-        <v>148.1121854369598</v>
+        <v>41.59147807846912</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>41.66838859861703</v>
+        <v>120.3771932937896</v>
       </c>
       <c r="K19" t="n">
-        <v>278.2351379430065</v>
+        <v>331.2022507269871</v>
       </c>
       <c r="L19" t="n">
         <v>489.2915009506404</v>
       </c>
       <c r="M19" t="n">
-        <v>527.368365412632</v>
+        <v>115.5662095924249</v>
       </c>
       <c r="N19" t="n">
-        <v>516.1615062613919</v>
+        <v>114.1080488453513</v>
       </c>
       <c r="O19" t="n">
-        <v>102.0630328910579</v>
+        <v>315.4248478893583</v>
       </c>
       <c r="P19" t="n">
-        <v>84.20369767373926</v>
+        <v>400.1190558285954</v>
       </c>
       <c r="Q19" t="n">
-        <v>49.17401917549815</v>
+        <v>202.0765417794366</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>41.19310894401319</v>
+        <v>41.1931089440132</v>
       </c>
       <c r="J20" t="n">
-        <v>137.3247049013575</v>
+        <v>137.3247049013576</v>
       </c>
       <c r="K20" t="n">
         <v>214.1424270260509</v>
       </c>
       <c r="L20" t="n">
-        <v>271.7197238701818</v>
+        <v>271.7197238701819</v>
       </c>
       <c r="M20" t="n">
-        <v>307.5388138384758</v>
+        <v>307.5388138384759</v>
       </c>
       <c r="N20" t="n">
-        <v>313.2724304001924</v>
+        <v>313.2724304001925</v>
       </c>
       <c r="O20" t="n">
         <v>293.6254040275394</v>
       </c>
       <c r="P20" t="n">
-        <v>244.93944600341</v>
+        <v>244.9394460034101</v>
       </c>
       <c r="Q20" t="n">
-        <v>176.0321804455865</v>
+        <v>176.0321804455866</v>
       </c>
       <c r="R20" t="n">
-        <v>88.37740944977563</v>
+        <v>88.37740944977566</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,10 +36196,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>20.01901761281534</v>
+        <v>43.71326594050407</v>
       </c>
       <c r="J21" t="n">
-        <v>78.70086546022148</v>
+        <v>78.70086546022151</v>
       </c>
       <c r="K21" t="n">
         <v>147.3407578132619</v>
@@ -36208,22 +36208,22 @@
         <v>205.7212792706333</v>
       </c>
       <c r="M21" t="n">
-        <v>243.2442933780978</v>
+        <v>398.2605421109615</v>
       </c>
       <c r="N21" t="n">
-        <v>252.0473013801636</v>
+        <v>252.0473013801637</v>
       </c>
       <c r="O21" t="n">
         <v>226.9268507197706</v>
       </c>
       <c r="P21" t="n">
-        <v>178.955447094312</v>
+        <v>178.9554470943121</v>
       </c>
       <c r="Q21" t="n">
-        <v>396.6643741014506</v>
+        <v>111.4331696824072</v>
       </c>
       <c r="R21" t="n">
-        <v>41.59147807846912</v>
+        <v>148.1121854369599</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36284,19 +36284,19 @@
         <v>331.2022507269871</v>
       </c>
       <c r="L22" t="n">
-        <v>109.1006993434031</v>
+        <v>489.2915009506405</v>
       </c>
       <c r="M22" t="n">
         <v>527.3683654126321</v>
       </c>
       <c r="N22" t="n">
-        <v>114.1080488453513</v>
+        <v>231.5830661783003</v>
       </c>
       <c r="O22" t="n">
-        <v>283.8134936763883</v>
+        <v>102.0630328910579</v>
       </c>
       <c r="P22" t="n">
-        <v>400.1190558285954</v>
+        <v>84.20369767373928</v>
       </c>
       <c r="Q22" t="n">
         <v>202.0765417794366</v>
@@ -36354,10 +36354,10 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>41.19310894401319</v>
+        <v>41.1931089440132</v>
       </c>
       <c r="J23" t="n">
-        <v>137.3247049013575</v>
+        <v>137.3247049013576</v>
       </c>
       <c r="K23" t="n">
         <v>214.1424270260509</v>
@@ -36369,7 +36369,7 @@
         <v>307.5388138384758</v>
       </c>
       <c r="N23" t="n">
-        <v>313.2724304001924</v>
+        <v>313.2724304001925</v>
       </c>
       <c r="O23" t="n">
         <v>293.6254040275394</v>
@@ -36378,7 +36378,7 @@
         <v>244.93944600341</v>
       </c>
       <c r="Q23" t="n">
-        <v>176.0321804455865</v>
+        <v>176.0321804455866</v>
       </c>
       <c r="R23" t="n">
         <v>88.37740944977563</v>
@@ -36433,10 +36433,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>20.01901761281534</v>
+        <v>43.71326594050407</v>
       </c>
       <c r="J24" t="n">
-        <v>78.70086546022148</v>
+        <v>233.7171141930855</v>
       </c>
       <c r="K24" t="n">
         <v>147.3407578132619</v>
@@ -36448,7 +36448,7 @@
         <v>243.2442933780978</v>
       </c>
       <c r="N24" t="n">
-        <v>252.0473013801636</v>
+        <v>252.0473013801637</v>
       </c>
       <c r="O24" t="n">
         <v>226.9268507197706</v>
@@ -36457,7 +36457,7 @@
         <v>178.955447094312</v>
       </c>
       <c r="Q24" t="n">
-        <v>290.1436667429598</v>
+        <v>111.4331696824072</v>
       </c>
       <c r="R24" t="n">
         <v>148.1121854369598</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>41.66838859861703</v>
+        <v>120.3771932937896</v>
       </c>
       <c r="K25" t="n">
         <v>331.2022507269871</v>
       </c>
       <c r="L25" t="n">
-        <v>489.2915009506404</v>
+        <v>489.2915009506405</v>
       </c>
       <c r="M25" t="n">
-        <v>158.4858944737956</v>
+        <v>115.5662095924249</v>
       </c>
       <c r="N25" t="n">
-        <v>516.1615062613919</v>
+        <v>114.1080488453513</v>
       </c>
       <c r="O25" t="n">
-        <v>102.0630328910579</v>
+        <v>315.4248478893578</v>
       </c>
       <c r="P25" t="n">
         <v>400.1190558285954</v>
       </c>
       <c r="Q25" t="n">
-        <v>49.17401917549815</v>
+        <v>202.0765417794366</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>41.19310894401319</v>
       </c>
       <c r="J26" t="n">
-        <v>137.3247049013575</v>
+        <v>137.3247049013582</v>
       </c>
       <c r="K26" t="n">
         <v>214.1424270260509</v>
@@ -36670,10 +36670,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>20.01901761281534</v>
+        <v>43.71326594050407</v>
       </c>
       <c r="J27" t="n">
-        <v>78.70086546022148</v>
+        <v>233.7171141930856</v>
       </c>
       <c r="K27" t="n">
         <v>147.3407578132619</v>
@@ -36694,10 +36694,10 @@
         <v>178.955447094312</v>
       </c>
       <c r="Q27" t="n">
-        <v>396.6643741014508</v>
+        <v>111.4331696824072</v>
       </c>
       <c r="R27" t="n">
-        <v>41.59147807846912</v>
+        <v>148.1121854369598</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36755,25 +36755,25 @@
         <v>120.3771932937896</v>
       </c>
       <c r="K28" t="n">
-        <v>81.4218374805002</v>
+        <v>331.2022507269871</v>
       </c>
       <c r="L28" t="n">
-        <v>109.1006993434031</v>
+        <v>489.2915009506404</v>
       </c>
       <c r="M28" t="n">
-        <v>527.368365412632</v>
+        <v>527.3683654126321</v>
       </c>
       <c r="N28" t="n">
-        <v>516.1615062613919</v>
+        <v>231.5830661783003</v>
       </c>
       <c r="O28" t="n">
-        <v>483.5805321872228</v>
+        <v>102.0630328910579</v>
       </c>
       <c r="P28" t="n">
-        <v>200.9814957521453</v>
+        <v>84.20369767373926</v>
       </c>
       <c r="Q28" t="n">
-        <v>49.17401917549815</v>
+        <v>202.0765417794366</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36910,7 +36910,7 @@
         <v>43.71326594050407</v>
       </c>
       <c r="J30" t="n">
-        <v>78.70086546022148</v>
+        <v>233.7171141930856</v>
       </c>
       <c r="K30" t="n">
         <v>147.3407578132619</v>
@@ -36919,7 +36919,7 @@
         <v>205.7212792706333</v>
       </c>
       <c r="M30" t="n">
-        <v>504.7812494694525</v>
+        <v>243.2442933780978</v>
       </c>
       <c r="N30" t="n">
         <v>252.0473013801636</v>
@@ -36934,7 +36934,7 @@
         <v>111.4331696824072</v>
       </c>
       <c r="R30" t="n">
-        <v>41.59147807846912</v>
+        <v>148.1121854369598</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,13 +36989,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>41.66838859861703</v>
+        <v>120.3771932937896</v>
       </c>
       <c r="K31" t="n">
-        <v>81.4218374805002</v>
+        <v>331.2022507269871</v>
       </c>
       <c r="L31" t="n">
-        <v>109.1006993434031</v>
+        <v>204.713060867549</v>
       </c>
       <c r="M31" t="n">
         <v>527.3683654126321</v>
@@ -37004,10 +37004,10 @@
         <v>516.1615062613919</v>
       </c>
       <c r="O31" t="n">
-        <v>483.5805321872228</v>
+        <v>102.0630328910579</v>
       </c>
       <c r="P31" t="n">
-        <v>126.7877778433799</v>
+        <v>84.20369767373926</v>
       </c>
       <c r="Q31" t="n">
         <v>202.0765417794366</v>
@@ -37089,7 +37089,7 @@
         <v>244.93944600341</v>
       </c>
       <c r="Q32" t="n">
-        <v>176.0321804455872</v>
+        <v>176.0321804455865</v>
       </c>
       <c r="R32" t="n">
         <v>88.37740944977563</v>
@@ -37147,10 +37147,10 @@
         <v>43.71326594050407</v>
       </c>
       <c r="J33" t="n">
-        <v>78.70086546022148</v>
+        <v>233.7171141930856</v>
       </c>
       <c r="K33" t="n">
-        <v>302.357006546126</v>
+        <v>147.3407578132619</v>
       </c>
       <c r="L33" t="n">
         <v>205.7212792706333</v>
@@ -37229,25 +37229,25 @@
         <v>41.66838859861703</v>
       </c>
       <c r="K34" t="n">
-        <v>241.7553711242954</v>
+        <v>81.4218374805002</v>
       </c>
       <c r="L34" t="n">
         <v>489.2915009506404</v>
       </c>
       <c r="M34" t="n">
-        <v>115.5662095924249</v>
+        <v>527.368365412632</v>
       </c>
       <c r="N34" t="n">
-        <v>114.1080488453513</v>
+        <v>516.1615062613919</v>
       </c>
       <c r="O34" t="n">
-        <v>483.5805321872228</v>
+        <v>102.0630328910579</v>
       </c>
       <c r="P34" t="n">
-        <v>400.1190558285954</v>
+        <v>281.0169981362454</v>
       </c>
       <c r="Q34" t="n">
-        <v>202.0765417794366</v>
+        <v>49.17401917549815</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37381,19 +37381,19 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>43.71326594050407</v>
+        <v>20.01901761281534</v>
       </c>
       <c r="J36" t="n">
-        <v>233.7171141930856</v>
+        <v>78.70086546022148</v>
       </c>
       <c r="K36" t="n">
         <v>147.3407578132619</v>
       </c>
       <c r="L36" t="n">
-        <v>205.7212792706333</v>
+        <v>206.8284116551425</v>
       </c>
       <c r="M36" t="n">
-        <v>243.2442933780978</v>
+        <v>527.3683654126321</v>
       </c>
       <c r="N36" t="n">
         <v>252.0473013801636</v>
@@ -37408,7 +37408,7 @@
         <v>111.4331696824072</v>
       </c>
       <c r="R36" t="n">
-        <v>148.1121854369598</v>
+        <v>41.59147807846912</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>120.3771932937896</v>
+        <v>41.66838859861703</v>
       </c>
       <c r="K37" t="n">
         <v>81.4218374805002</v>
@@ -37475,13 +37475,13 @@
         <v>115.5662095924249</v>
       </c>
       <c r="N37" t="n">
-        <v>516.1615062613919</v>
+        <v>427.3441050930845</v>
       </c>
       <c r="O37" t="n">
         <v>483.5805321872228</v>
       </c>
       <c r="P37" t="n">
-        <v>232.592849965115</v>
+        <v>400.1190558285954</v>
       </c>
       <c r="Q37" t="n">
         <v>49.17401917549815</v>
@@ -37636,16 +37636,16 @@
         <v>252.0473013801636</v>
       </c>
       <c r="O39" t="n">
-        <v>488.4638068111253</v>
+        <v>226.9268507197706</v>
       </c>
       <c r="P39" t="n">
         <v>178.955447094312</v>
       </c>
       <c r="Q39" t="n">
-        <v>111.4331696824072</v>
+        <v>266.4494184152711</v>
       </c>
       <c r="R39" t="n">
-        <v>41.59147807846912</v>
+        <v>148.1121854369598</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37709,16 +37709,16 @@
         <v>489.2915009506404</v>
       </c>
       <c r="M40" t="n">
-        <v>527.3683654126321</v>
+        <v>115.5662095924249</v>
       </c>
       <c r="N40" t="n">
-        <v>231.5830661783003</v>
+        <v>114.1080488453513</v>
       </c>
       <c r="O40" t="n">
-        <v>102.0630328910579</v>
+        <v>315.4248478893583</v>
       </c>
       <c r="P40" t="n">
-        <v>84.20369767373926</v>
+        <v>400.1190558285954</v>
       </c>
       <c r="Q40" t="n">
         <v>202.0765417794366</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>41.19310894401319</v>
+        <v>41.19310894401384</v>
       </c>
       <c r="J41" t="n">
         <v>137.3247049013575</v>
@@ -37858,7 +37858,7 @@
         <v>43.71326594050407</v>
       </c>
       <c r="J42" t="n">
-        <v>78.70086546022148</v>
+        <v>233.7171141930856</v>
       </c>
       <c r="K42" t="n">
         <v>147.3407578132619</v>
@@ -37870,7 +37870,7 @@
         <v>243.2442933780978</v>
       </c>
       <c r="N42" t="n">
-        <v>513.5842574715184</v>
+        <v>252.0473013801636</v>
       </c>
       <c r="O42" t="n">
         <v>226.9268507197706</v>
@@ -37882,7 +37882,7 @@
         <v>111.4331696824072</v>
       </c>
       <c r="R42" t="n">
-        <v>41.59147807846912</v>
+        <v>148.1121854369598</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>120.3771932937896</v>
+        <v>105.1240315998634</v>
       </c>
       <c r="K43" t="n">
-        <v>81.4218374805002</v>
+        <v>331.2022507269871</v>
       </c>
       <c r="L43" t="n">
         <v>489.2915009506404</v>
       </c>
       <c r="M43" t="n">
-        <v>527.3683654126321</v>
+        <v>115.5662095924249</v>
       </c>
       <c r="N43" t="n">
         <v>114.1080488453513</v>
       </c>
       <c r="O43" t="n">
-        <v>153.4031053156381</v>
+        <v>483.5805321872228</v>
       </c>
       <c r="P43" t="n">
         <v>400.1190558285954</v>
       </c>
       <c r="Q43" t="n">
-        <v>202.0765417794366</v>
+        <v>49.17401917549815</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38092,10 +38092,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>20.01901761281534</v>
+        <v>43.71326594050407</v>
       </c>
       <c r="J45" t="n">
-        <v>363.9320698792651</v>
+        <v>233.7171141930856</v>
       </c>
       <c r="K45" t="n">
         <v>147.3407578132619</v>
@@ -38119,7 +38119,7 @@
         <v>111.4331696824072</v>
       </c>
       <c r="R45" t="n">
-        <v>41.59147807846912</v>
+        <v>148.1121854369598</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>115.8638229812276</v>
+        <v>120.3771932937896</v>
       </c>
       <c r="K46" t="n">
         <v>81.4218374805002</v>
@@ -38183,19 +38183,19 @@
         <v>489.2915009506404</v>
       </c>
       <c r="M46" t="n">
-        <v>115.5662095924249</v>
+        <v>527.3683654126321</v>
       </c>
       <c r="N46" t="n">
         <v>516.1615062613919</v>
       </c>
       <c r="O46" t="n">
-        <v>483.5805321872228</v>
+        <v>220.1675286583921</v>
       </c>
       <c r="P46" t="n">
         <v>84.20369767373926</v>
       </c>
       <c r="Q46" t="n">
-        <v>202.0765417794366</v>
+        <v>49.17401917549815</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
